--- a/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D758737A-B23B-F64C-A7D3-88991E897FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871FC42-4D17-404D-98C4-A02D0DAF18FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="example" sheetId="1" r:id="rId1"/>
+    <sheet name="PESERTA UJIAN MOODLE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="761">
   <si>
     <t>username</t>
   </si>
@@ -2289,13 +2289,40 @@
   </si>
   <si>
     <t>SASTH46*</t>
+  </si>
+  <si>
+    <t>cohort1</t>
+  </si>
+  <si>
+    <t>XII TJKT 1</t>
+  </si>
+  <si>
+    <t>XII TJKT 2</t>
+  </si>
+  <si>
+    <t>XII TJKT 3</t>
+  </si>
+  <si>
+    <t>XII AKL 1</t>
+  </si>
+  <si>
+    <t>XII AKL 2</t>
+  </si>
+  <si>
+    <t>XII MPLB 1</t>
+  </si>
+  <si>
+    <t>XII MPLB 2</t>
+  </si>
+  <si>
+    <t>XII PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2431,13 +2458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2785,12 +2805,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3149,7 +3166,7 @@
   <dimension ref="A1:G1042"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G1" sqref="G1:G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,7 +3177,7 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3179,6 +3196,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1)</f>
+        <v>username,password,firstname,lastname,email,cohort1</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3196,8 +3220,13 @@
       <c r="E2" t="s">
         <v>505</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2)</f>
+        <v>K0103009800018,SASTH46*,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3215,8 +3244,13 @@
       <c r="E3" t="s">
         <v>506</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" t="s">
+        <v>753</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800027,SASTH46*,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3234,8 +3268,13 @@
       <c r="E4" t="s">
         <v>507</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" t="s">
+        <v>753</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800036,SASTH46*,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3253,8 +3292,13 @@
       <c r="E5" t="s">
         <v>508</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800045,SASTH46*,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3272,8 +3316,13 @@
       <c r="E6" t="s">
         <v>509</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800054,SASTH46*,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3291,8 +3340,13 @@
       <c r="E7" t="s">
         <v>510</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" t="s">
+        <v>753</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800063,SASTH46*,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3310,8 +3364,13 @@
       <c r="E8" t="s">
         <v>511</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" t="s">
+        <v>753</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800072,SASTH46*,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3329,8 +3388,13 @@
       <c r="E9" t="s">
         <v>512</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" t="s">
+        <v>753</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800089,SASTH46*,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3348,8 +3412,13 @@
       <c r="E10" t="s">
         <v>513</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" t="s">
+        <v>753</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800098,SASTH46*,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3367,8 +3436,13 @@
       <c r="E11" t="s">
         <v>514</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" t="s">
+        <v>753</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800107,SASTH46*,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3386,6 +3460,13 @@
       <c r="E12" t="s">
         <v>515</v>
       </c>
+      <c r="F12" t="s">
+        <v>753</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800116,SASTH46*,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3403,6 +3484,13 @@
       <c r="E13" t="s">
         <v>516</v>
       </c>
+      <c r="F13" t="s">
+        <v>753</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800125,SASTH46*,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3420,6 +3508,13 @@
       <c r="E14" t="s">
         <v>517</v>
       </c>
+      <c r="F14" t="s">
+        <v>753</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800134,SASTH46*,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3437,6 +3532,13 @@
       <c r="E15" t="s">
         <v>518</v>
       </c>
+      <c r="F15" t="s">
+        <v>753</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800143,SASTH46*,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3454,8 +3556,15 @@
       <c r="E16" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>753</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800152,SASTH46*,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>274</v>
       </c>
@@ -3471,8 +3580,15 @@
       <c r="E17" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>753</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800169,SASTH46*,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>275</v>
       </c>
@@ -3488,8 +3604,15 @@
       <c r="E18" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>753</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800178,SASTH46*,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>276</v>
       </c>
@@ -3505,8 +3628,15 @@
       <c r="E19" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>753</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800187,SASTH46*,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>277</v>
       </c>
@@ -3522,8 +3652,15 @@
       <c r="E20" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800196,SASTH46*,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -3539,8 +3676,15 @@
       <c r="E21" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>753</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800205,SASTH46*,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>279</v>
       </c>
@@ -3556,8 +3700,15 @@
       <c r="E22" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>753</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800214,SASTH46*,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>280</v>
       </c>
@@ -3573,8 +3724,15 @@
       <c r="E23" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>753</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800223,SASTH46*,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>281</v>
       </c>
@@ -3590,8 +3748,15 @@
       <c r="E24" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>753</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800232,SASTH46*,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>282</v>
       </c>
@@ -3607,8 +3772,15 @@
       <c r="E25" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>753</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800249,SASTH46*,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>283</v>
       </c>
@@ -3624,8 +3796,15 @@
       <c r="E26" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>753</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800258,SASTH46*,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>284</v>
       </c>
@@ -3641,8 +3820,15 @@
       <c r="E27" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>753</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800267,SASTH46*,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>285</v>
       </c>
@@ -3658,8 +3844,15 @@
       <c r="E28" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>753</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800276,SASTH46*,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>286</v>
       </c>
@@ -3675,8 +3868,15 @@
       <c r="E29" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800285,SASTH46*,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>287</v>
       </c>
@@ -3692,8 +3892,15 @@
       <c r="E30" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>753</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800294,SASTH46*,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>288</v>
       </c>
@@ -3709,8 +3916,15 @@
       <c r="E31" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>753</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800303,SASTH46*,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>289</v>
       </c>
@@ -3726,8 +3940,15 @@
       <c r="E32" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>753</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800312,SASTH46*,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>290</v>
       </c>
@@ -3743,8 +3964,15 @@
       <c r="E33" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>754</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800329,SASTH46*,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>291</v>
       </c>
@@ -3760,8 +3988,15 @@
       <c r="E34" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>754</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800338,SASTH46*,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>292</v>
       </c>
@@ -3777,8 +4012,15 @@
       <c r="E35" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800347,SASTH46*,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>293</v>
       </c>
@@ -3794,8 +4036,15 @@
       <c r="E36" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>754</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800356,SASTH46*,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>294</v>
       </c>
@@ -3811,8 +4060,15 @@
       <c r="E37" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>754</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800365,SASTH46*,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
@@ -3828,8 +4084,15 @@
       <c r="E38" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>754</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800374,SASTH46*,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>296</v>
       </c>
@@ -3845,8 +4108,15 @@
       <c r="E39" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>754</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800383,SASTH46*,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>297</v>
       </c>
@@ -3862,8 +4132,15 @@
       <c r="E40" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>754</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800392,SASTH46*,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>298</v>
       </c>
@@ -3879,8 +4156,15 @@
       <c r="E41" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>754</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800409,SASTH46*,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>299</v>
       </c>
@@ -3896,8 +4180,15 @@
       <c r="E42" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>754</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800418,SASTH46*,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>300</v>
       </c>
@@ -3913,8 +4204,15 @@
       <c r="E43" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>754</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800427,SASTH46*,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>301</v>
       </c>
@@ -3930,8 +4228,15 @@
       <c r="E44" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>754</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800436,SASTH46*,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>302</v>
       </c>
@@ -3947,8 +4252,15 @@
       <c r="E45" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>754</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800445,SASTH46*,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>303</v>
       </c>
@@ -3964,8 +4276,15 @@
       <c r="E46" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>754</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800454,SASTH46*,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>304</v>
       </c>
@@ -3981,8 +4300,15 @@
       <c r="E47" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>754</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800463,SASTH46*,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>305</v>
       </c>
@@ -3998,8 +4324,15 @@
       <c r="E48" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>754</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800472,SASTH46*,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
@@ -4015,8 +4348,15 @@
       <c r="E49" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>754</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800489,SASTH46*,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>307</v>
       </c>
@@ -4032,8 +4372,15 @@
       <c r="E50" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>754</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800498,SASTH46*,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>308</v>
       </c>
@@ -4049,8 +4396,15 @@
       <c r="E51" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>754</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800507,SASTH46*,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>309</v>
       </c>
@@ -4066,8 +4420,15 @@
       <c r="E52" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>754</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800516,SASTH46*,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
@@ -4083,8 +4444,15 @@
       <c r="E53" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>754</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800525,SASTH46*,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>311</v>
       </c>
@@ -4100,8 +4468,15 @@
       <c r="E54" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>754</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800534,SASTH46*,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>312</v>
       </c>
@@ -4117,8 +4492,15 @@
       <c r="E55" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>754</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800543,SASTH46*,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>313</v>
       </c>
@@ -4134,8 +4516,15 @@
       <c r="E56" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>754</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800552,SASTH46*,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>314</v>
       </c>
@@ -4151,8 +4540,15 @@
       <c r="E57" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>754</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800569,SASTH46*,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>315</v>
       </c>
@@ -4168,8 +4564,15 @@
       <c r="E58" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>754</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800578,SASTH46*,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>316</v>
       </c>
@@ -4185,8 +4588,15 @@
       <c r="E59" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>754</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800587,SASTH46*,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>317</v>
       </c>
@@ -4202,8 +4612,15 @@
       <c r="E60" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>754</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800596,SASTH46*,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>318</v>
       </c>
@@ -4219,8 +4636,15 @@
       <c r="E61" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>754</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800605,SASTH46*,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>319</v>
       </c>
@@ -4236,8 +4660,15 @@
       <c r="E62" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>754</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800614,SASTH46*,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>320</v>
       </c>
@@ -4253,8 +4684,15 @@
       <c r="E63" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>754</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800623,SASTH46*,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>321</v>
       </c>
@@ -4270,8 +4708,15 @@
       <c r="E64" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>754</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800632,SASTH46*,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>322</v>
       </c>
@@ -4287,8 +4732,15 @@
       <c r="E65" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>754</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>K0103009800649,SASTH46*,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>323</v>
       </c>
@@ -4304,8 +4756,15 @@
       <c r="E66" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>754</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G129" si="1">CONCATENATE(A66,",",B66,",",C66,",",D66,",",E66,",",F66)</f>
+        <v>K0103009800658,SASTH46*,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>324</v>
       </c>
@@ -4321,8 +4780,15 @@
       <c r="E67" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>754</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800667,SASTH46*,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>325</v>
       </c>
@@ -4338,8 +4804,15 @@
       <c r="E68" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>755</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800676,SASTH46*,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>326</v>
       </c>
@@ -4355,8 +4828,15 @@
       <c r="E69" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>755</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800685,SASTH46*,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>327</v>
       </c>
@@ -4372,8 +4852,15 @@
       <c r="E70" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>755</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800694,SASTH46*,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>328</v>
       </c>
@@ -4389,8 +4876,15 @@
       <c r="E71" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>755</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800703,SASTH46*,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>329</v>
       </c>
@@ -4406,8 +4900,15 @@
       <c r="E72" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>755</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800712,SASTH46*,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>330</v>
       </c>
@@ -4423,8 +4924,15 @@
       <c r="E73" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800729,SASTH46*,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>331</v>
       </c>
@@ -4440,8 +4948,15 @@
       <c r="E74" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>755</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800738,SASTH46*,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>332</v>
       </c>
@@ -4457,8 +4972,15 @@
       <c r="E75" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>755</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800747,SASTH46*,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>333</v>
       </c>
@@ -4474,8 +4996,15 @@
       <c r="E76" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>755</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800756,SASTH46*,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>334</v>
       </c>
@@ -4491,8 +5020,15 @@
       <c r="E77" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>755</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800765,SASTH46*,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>335</v>
       </c>
@@ -4508,8 +5044,15 @@
       <c r="E78" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>755</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800774,SASTH46*,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>336</v>
       </c>
@@ -4525,8 +5068,15 @@
       <c r="E79" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>755</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800783,SASTH46*,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>337</v>
       </c>
@@ -4542,8 +5092,15 @@
       <c r="E80" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>755</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800792,SASTH46*,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>338</v>
       </c>
@@ -4559,8 +5116,15 @@
       <c r="E81" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>755</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800809,SASTH46*,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>339</v>
       </c>
@@ -4576,8 +5140,15 @@
       <c r="E82" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>755</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800818,SASTH46*,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>340</v>
       </c>
@@ -4593,8 +5164,15 @@
       <c r="E83" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>755</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800827,SASTH46*,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>341</v>
       </c>
@@ -4610,8 +5188,15 @@
       <c r="E84" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>755</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800836,SASTH46*,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>342</v>
       </c>
@@ -4627,8 +5212,15 @@
       <c r="E85" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>755</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800845,SASTH46*,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>343</v>
       </c>
@@ -4644,8 +5236,15 @@
       <c r="E86" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>755</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800854,SASTH46*,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
@@ -4661,8 +5260,15 @@
       <c r="E87" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>755</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800863,SASTH46*,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>345</v>
       </c>
@@ -4678,8 +5284,15 @@
       <c r="E88" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>755</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800872,SASTH46*,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>346</v>
       </c>
@@ -4695,8 +5308,15 @@
       <c r="E89" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>755</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800889,SASTH46*,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>347</v>
       </c>
@@ -4712,8 +5332,15 @@
       <c r="E90" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>755</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800898,SASTH46*,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>348</v>
       </c>
@@ -4729,8 +5356,15 @@
       <c r="E91" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>755</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800907,SASTH46*,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>349</v>
       </c>
@@ -4746,8 +5380,15 @@
       <c r="E92" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>755</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800916,SASTH46*,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>350</v>
       </c>
@@ -4763,8 +5404,15 @@
       <c r="E93" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>755</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800925,SASTH46*,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>351</v>
       </c>
@@ -4780,8 +5428,15 @@
       <c r="E94" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>755</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800934,SASTH46*,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>352</v>
       </c>
@@ -4797,8 +5452,15 @@
       <c r="E95" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>755</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800943,SASTH46*,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>353</v>
       </c>
@@ -4814,8 +5476,15 @@
       <c r="E96" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>755</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800952,SASTH46*,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>354</v>
       </c>
@@ -4831,8 +5500,15 @@
       <c r="E97" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>755</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800969,SASTH46*,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>355</v>
       </c>
@@ -4848,8 +5524,15 @@
       <c r="E98" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>755</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800978,SASTH46*,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>356</v>
       </c>
@@ -4865,8 +5548,15 @@
       <c r="E99" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>756</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800987,SASTH46*,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>357</v>
       </c>
@@ -4882,8 +5572,15 @@
       <c r="E100" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>756</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009800996,SASTH46*,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>358</v>
       </c>
@@ -4899,8 +5596,15 @@
       <c r="E101" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>756</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801005,SASTH46*,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>359</v>
       </c>
@@ -4916,8 +5620,15 @@
       <c r="E102" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>756</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801014,SASTH46*,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>360</v>
       </c>
@@ -4933,8 +5644,15 @@
       <c r="E103" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>756</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801023,SASTH46*,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>361</v>
       </c>
@@ -4950,8 +5668,15 @@
       <c r="E104" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>756</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801032,SASTH46*,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>362</v>
       </c>
@@ -4967,8 +5692,15 @@
       <c r="E105" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>756</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801049,SASTH46*,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>363</v>
       </c>
@@ -4984,8 +5716,15 @@
       <c r="E106" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>756</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801058,SASTH46*,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>364</v>
       </c>
@@ -5001,8 +5740,15 @@
       <c r="E107" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>756</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801067,SASTH46*,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>365</v>
       </c>
@@ -5018,8 +5764,15 @@
       <c r="E108" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>756</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801076,SASTH46*,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>366</v>
       </c>
@@ -5035,8 +5788,15 @@
       <c r="E109" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>756</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801085,SASTH46*,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>367</v>
       </c>
@@ -5052,8 +5812,15 @@
       <c r="E110" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>756</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801094,SASTH46*,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>368</v>
       </c>
@@ -5069,8 +5836,15 @@
       <c r="E111" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>756</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801103,SASTH46*,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>369</v>
       </c>
@@ -5086,8 +5860,15 @@
       <c r="E112" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>756</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801112,SASTH46*,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5103,8 +5884,15 @@
       <c r="E113" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>756</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801129,SASTH46*,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>371</v>
       </c>
@@ -5120,8 +5908,15 @@
       <c r="E114" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>756</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801138,SASTH46*,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>372</v>
       </c>
@@ -5137,8 +5932,15 @@
       <c r="E115" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>756</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801147,SASTH46*,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>373</v>
       </c>
@@ -5154,8 +5956,15 @@
       <c r="E116" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>756</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801156,SASTH46*,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>374</v>
       </c>
@@ -5171,8 +5980,15 @@
       <c r="E117" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>756</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801165,SASTH46*,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>375</v>
       </c>
@@ -5188,8 +6004,15 @@
       <c r="E118" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>756</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801174,SASTH46*,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>376</v>
       </c>
@@ -5205,8 +6028,15 @@
       <c r="E119" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>756</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801183,SASTH46*,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>377</v>
       </c>
@@ -5222,8 +6052,15 @@
       <c r="E120" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>756</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801192,SASTH46*,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>378</v>
       </c>
@@ -5239,8 +6076,15 @@
       <c r="E121" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>756</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801209,SASTH46*,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>379</v>
       </c>
@@ -5256,8 +6100,15 @@
       <c r="E122" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>756</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801218,SASTH46*,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>380</v>
       </c>
@@ -5273,8 +6124,15 @@
       <c r="E123" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>756</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801227,SASTH46*,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>381</v>
       </c>
@@ -5290,8 +6148,15 @@
       <c r="E124" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>757</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801236,SASTH46*,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>382</v>
       </c>
@@ -5307,8 +6172,15 @@
       <c r="E125" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>757</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801245,SASTH46*,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>383</v>
       </c>
@@ -5324,8 +6196,15 @@
       <c r="E126" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>757</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801254,SASTH46*,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>384</v>
       </c>
@@ -5341,8 +6220,15 @@
       <c r="E127" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>757</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801263,SASTH46*,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>385</v>
       </c>
@@ -5358,8 +6244,15 @@
       <c r="E128" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>757</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801272,SASTH46*,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>386</v>
       </c>
@@ -5375,8 +6268,15 @@
       <c r="E129" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>757</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>K0103009801289,SASTH46*,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
@@ -5392,8 +6292,15 @@
       <c r="E130" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>757</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" ref="G130:G193" si="2">CONCATENATE(A130,",",B130,",",C130,",",D130,",",E130,",",F130)</f>
+        <v>K0103009801298,SASTH46*,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>388</v>
       </c>
@@ -5409,8 +6316,15 @@
       <c r="E131" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>757</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801307,SASTH46*,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>389</v>
       </c>
@@ -5426,8 +6340,15 @@
       <c r="E132" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>757</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801316,SASTH46*,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>390</v>
       </c>
@@ -5443,8 +6364,15 @@
       <c r="E133" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>757</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801325,SASTH46*,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>391</v>
       </c>
@@ -5460,8 +6388,15 @@
       <c r="E134" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>757</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801334,SASTH46*,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>392</v>
       </c>
@@ -5477,8 +6412,15 @@
       <c r="E135" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>757</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801343,SASTH46*,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>393</v>
       </c>
@@ -5494,8 +6436,15 @@
       <c r="E136" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>757</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801352,SASTH46*,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>394</v>
       </c>
@@ -5511,8 +6460,15 @@
       <c r="E137" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>757</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801369,SASTH46*,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>395</v>
       </c>
@@ -5528,8 +6484,15 @@
       <c r="E138" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>757</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801378,SASTH46*,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>396</v>
       </c>
@@ -5545,8 +6508,15 @@
       <c r="E139" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>757</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801387,SASTH46*,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>397</v>
       </c>
@@ -5562,8 +6532,15 @@
       <c r="E140" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>757</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801396,SASTH46*,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>398</v>
       </c>
@@ -5579,8 +6556,15 @@
       <c r="E141" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>757</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801405,SASTH46*,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>399</v>
       </c>
@@ -5596,8 +6580,15 @@
       <c r="E142" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>757</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801414,SASTH46*,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>400</v>
       </c>
@@ -5613,8 +6604,15 @@
       <c r="E143" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>757</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801423,SASTH46*,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>401</v>
       </c>
@@ -5630,8 +6628,15 @@
       <c r="E144" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>757</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801432,SASTH46*,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
@@ -5647,8 +6652,15 @@
       <c r="E145" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>757</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801449,SASTH46*,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>403</v>
       </c>
@@ -5664,8 +6676,15 @@
       <c r="E146" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>757</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801458,SASTH46*,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>404</v>
       </c>
@@ -5681,8 +6700,15 @@
       <c r="E147" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>758</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801467,SASTH46*,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>405</v>
       </c>
@@ -5698,8 +6724,15 @@
       <c r="E148" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>758</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801476,SASTH46*,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>406</v>
       </c>
@@ -5715,8 +6748,15 @@
       <c r="E149" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>758</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801485,SASTH46*,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>407</v>
       </c>
@@ -5732,8 +6772,15 @@
       <c r="E150" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>758</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801494,SASTH46*,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>408</v>
       </c>
@@ -5749,8 +6796,15 @@
       <c r="E151" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>758</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801503,SASTH46*,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>409</v>
       </c>
@@ -5766,8 +6820,15 @@
       <c r="E152" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>758</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801512,SASTH46*,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>410</v>
       </c>
@@ -5783,8 +6844,15 @@
       <c r="E153" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>758</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801529,SASTH46*,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>411</v>
       </c>
@@ -5800,8 +6868,15 @@
       <c r="E154" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>758</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801538,SASTH46*,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>412</v>
       </c>
@@ -5817,8 +6892,15 @@
       <c r="E155" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>758</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801547,SASTH46*,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>413</v>
       </c>
@@ -5834,8 +6916,15 @@
       <c r="E156" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>758</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801556,SASTH46*,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>414</v>
       </c>
@@ -5851,8 +6940,15 @@
       <c r="E157" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>758</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801565,SASTH46*,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>415</v>
       </c>
@@ -5868,8 +6964,15 @@
       <c r="E158" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>758</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801574,SASTH46*,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>416</v>
       </c>
@@ -5885,8 +6988,15 @@
       <c r="E159" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>758</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801583,SASTH46*,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>417</v>
       </c>
@@ -5902,8 +7012,15 @@
       <c r="E160" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>758</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801592,SASTH46*,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -5919,8 +7036,15 @@
       <c r="E161" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>758</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801609,SASTH46*,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>419</v>
       </c>
@@ -5936,8 +7060,15 @@
       <c r="E162" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>758</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801618,SASTH46*,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>420</v>
       </c>
@@ -5953,8 +7084,15 @@
       <c r="E163" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>758</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801627,SASTH46*,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>421</v>
       </c>
@@ -5970,8 +7108,15 @@
       <c r="E164" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>758</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801636,SASTH46*,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>422</v>
       </c>
@@ -5987,8 +7132,15 @@
       <c r="E165" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>758</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801645,SASTH46*,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
@@ -6004,8 +7156,15 @@
       <c r="E166" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>758</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801654,SASTH46*,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>424</v>
       </c>
@@ -6021,8 +7180,15 @@
       <c r="E167" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>758</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801663,SASTH46*,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>425</v>
       </c>
@@ -6038,8 +7204,15 @@
       <c r="E168" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>758</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801672,SASTH46*,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>426</v>
       </c>
@@ -6055,8 +7228,15 @@
       <c r="E169" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>758</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801689,SASTH46*,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>427</v>
       </c>
@@ -6072,8 +7252,15 @@
       <c r="E170" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>758</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801698,SASTH46*,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>428</v>
       </c>
@@ -6089,8 +7276,15 @@
       <c r="E171" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>758</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801707,SASTH46*,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>429</v>
       </c>
@@ -6106,8 +7300,15 @@
       <c r="E172" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>758</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801716,SASTH46*,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>430</v>
       </c>
@@ -6123,8 +7324,15 @@
       <c r="E173" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>758</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801725,SASTH46*,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>431</v>
       </c>
@@ -6140,8 +7348,15 @@
       <c r="E174" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>758</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801734,SASTH46*,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>432</v>
       </c>
@@ -6157,8 +7372,15 @@
       <c r="E175" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>758</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801743,SASTH46*,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>433</v>
       </c>
@@ -6174,8 +7396,15 @@
       <c r="E176" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>758</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801752,SASTH46*,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>434</v>
       </c>
@@ -6191,8 +7420,15 @@
       <c r="E177" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>759</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801769,SASTH46*,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>435</v>
       </c>
@@ -6208,8 +7444,15 @@
       <c r="E178" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>759</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801778,SASTH46*,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>436</v>
       </c>
@@ -6225,8 +7468,15 @@
       <c r="E179" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>759</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801787,SASTH46*,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>437</v>
       </c>
@@ -6242,8 +7492,15 @@
       <c r="E180" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>759</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801796,SASTH46*,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>438</v>
       </c>
@@ -6259,8 +7516,15 @@
       <c r="E181" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>759</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801805,SASTH46*,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>439</v>
       </c>
@@ -6276,8 +7540,15 @@
       <c r="E182" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>759</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801814,SASTH46*,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>440</v>
       </c>
@@ -6293,8 +7564,15 @@
       <c r="E183" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>759</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801823,SASTH46*,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>441</v>
       </c>
@@ -6310,8 +7588,15 @@
       <c r="E184" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>759</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801832,SASTH46*,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>442</v>
       </c>
@@ -6327,8 +7612,15 @@
       <c r="E185" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>759</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801849,SASTH46*,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>443</v>
       </c>
@@ -6344,8 +7636,15 @@
       <c r="E186" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>759</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801858,SASTH46*,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>444</v>
       </c>
@@ -6361,8 +7660,15 @@
       <c r="E187" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>759</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801867,SASTH46*,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>445</v>
       </c>
@@ -6378,8 +7684,15 @@
       <c r="E188" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>759</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801876,SASTH46*,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>446</v>
       </c>
@@ -6395,8 +7708,15 @@
       <c r="E189" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>759</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801885,SASTH46*,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>447</v>
       </c>
@@ -6412,8 +7732,15 @@
       <c r="E190" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>759</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801894,SASTH46*,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>448</v>
       </c>
@@ -6429,8 +7756,15 @@
       <c r="E191" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>759</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801903,SASTH46*,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>449</v>
       </c>
@@ -6446,8 +7780,15 @@
       <c r="E192" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>759</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801912,SASTH46*,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>450</v>
       </c>
@@ -6463,8 +7804,15 @@
       <c r="E193" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>759</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="2"/>
+        <v>K0103009801929,SASTH46*,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>451</v>
       </c>
@@ -6480,8 +7828,15 @@
       <c r="E194" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>759</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" ref="G194:G247" si="3">CONCATENATE(A194,",",B194,",",C194,",",D194,",",E194,",",F194)</f>
+        <v>K0103009801938,SASTH46*,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>452</v>
       </c>
@@ -6497,8 +7852,15 @@
       <c r="E195" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>759</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009801947,SASTH46*,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>453</v>
       </c>
@@ -6514,8 +7876,15 @@
       <c r="E196" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>759</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009801956,SASTH46*,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>454</v>
       </c>
@@ -6531,8 +7900,15 @@
       <c r="E197" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>759</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009801965,SASTH46*,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>455</v>
       </c>
@@ -6548,8 +7924,15 @@
       <c r="E198" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>759</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009801974,SASTH46*,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>456</v>
       </c>
@@ -6565,8 +7948,15 @@
       <c r="E199" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>759</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009801983,SASTH46*,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>457</v>
       </c>
@@ -6582,8 +7972,15 @@
       <c r="E200" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>759</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009801992,SASTH46*,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>458</v>
       </c>
@@ -6599,8 +7996,15 @@
       <c r="E201" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>759</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802009,SASTH46*,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>459</v>
       </c>
@@ -6616,8 +8020,15 @@
       <c r="E202" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>759</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802018,SASTH46*,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>460</v>
       </c>
@@ -6633,8 +8044,15 @@
       <c r="E203" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>759</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802027,SASTH46*,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>461</v>
       </c>
@@ -6650,8 +8068,15 @@
       <c r="E204" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>759</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802036,SASTH46*,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>462</v>
       </c>
@@ -6667,8 +8092,15 @@
       <c r="E205" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>759</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802045,SASTH46*,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>463</v>
       </c>
@@ -6684,8 +8116,15 @@
       <c r="E206" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>759</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802054,SASTH46*,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>464</v>
       </c>
@@ -6701,8 +8140,15 @@
       <c r="E207" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>759</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802063,SASTH46*,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>465</v>
       </c>
@@ -6718,8 +8164,15 @@
       <c r="E208" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>759</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802072,SASTH46*,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>466</v>
       </c>
@@ -6735,8 +8188,15 @@
       <c r="E209" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>760</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802089,SASTH46*,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>467</v>
       </c>
@@ -6752,8 +8212,15 @@
       <c r="E210" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>760</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802098,SASTH46*,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>468</v>
       </c>
@@ -6769,8 +8236,15 @@
       <c r="E211" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>760</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802107,SASTH46*,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>469</v>
       </c>
@@ -6786,8 +8260,15 @@
       <c r="E212" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>760</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802116,SASTH46*,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>470</v>
       </c>
@@ -6803,8 +8284,15 @@
       <c r="E213" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>760</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802125,SASTH46*,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>471</v>
       </c>
@@ -6820,8 +8308,15 @@
       <c r="E214" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>760</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802134,SASTH46*,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>472</v>
       </c>
@@ -6837,8 +8332,15 @@
       <c r="E215" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>760</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802143,SASTH46*,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>473</v>
       </c>
@@ -6854,8 +8356,15 @@
       <c r="E216" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>760</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802152,SASTH46*,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>474</v>
       </c>
@@ -6871,8 +8380,15 @@
       <c r="E217" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>760</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802169,SASTH46*,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>475</v>
       </c>
@@ -6888,8 +8404,15 @@
       <c r="E218" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>760</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802178,SASTH46*,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>476</v>
       </c>
@@ -6905,8 +8428,15 @@
       <c r="E219" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>760</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802187,SASTH46*,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>477</v>
       </c>
@@ -6922,8 +8452,15 @@
       <c r="E220" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>760</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802196,SASTH46*,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>478</v>
       </c>
@@ -6939,8 +8476,15 @@
       <c r="E221" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>760</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802205,SASTH46*,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>479</v>
       </c>
@@ -6956,8 +8500,15 @@
       <c r="E222" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>760</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802214,SASTH46*,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>480</v>
       </c>
@@ -6973,8 +8524,15 @@
       <c r="E223" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>760</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802223,SASTH46*,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>481</v>
       </c>
@@ -6990,8 +8548,15 @@
       <c r="E224" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>760</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802232,SASTH46*,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>482</v>
       </c>
@@ -7007,8 +8572,15 @@
       <c r="E225" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>760</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802249,SASTH46*,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>483</v>
       </c>
@@ -7024,8 +8596,15 @@
       <c r="E226" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>760</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802258,SASTH46*,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>484</v>
       </c>
@@ -7041,8 +8620,15 @@
       <c r="E227" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>760</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802267,SASTH46*,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>485</v>
       </c>
@@ -7058,8 +8644,15 @@
       <c r="E228" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>760</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802276,SASTH46*,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>486</v>
       </c>
@@ -7075,8 +8668,15 @@
       <c r="E229" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>760</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802285,SASTH46*,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>487</v>
       </c>
@@ -7092,8 +8692,15 @@
       <c r="E230" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>760</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802294,SASTH46*,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>488</v>
       </c>
@@ -7109,8 +8716,15 @@
       <c r="E231" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>760</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802303,SASTH46*,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>489</v>
       </c>
@@ -7126,8 +8740,15 @@
       <c r="E232" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>760</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802312,SASTH46*,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>490</v>
       </c>
@@ -7143,8 +8764,15 @@
       <c r="E233" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" t="s">
+        <v>760</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802329,SASTH46*,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>491</v>
       </c>
@@ -7160,8 +8788,15 @@
       <c r="E234" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>760</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802338,SASTH46*,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>492</v>
       </c>
@@ -7177,8 +8812,15 @@
       <c r="E235" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>760</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802347,SASTH46*,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>493</v>
       </c>
@@ -7194,8 +8836,15 @@
       <c r="E236" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>760</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802356,SASTH46*,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>494</v>
       </c>
@@ -7211,8 +8860,15 @@
       <c r="E237" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>760</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802365,SASTH46*,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>495</v>
       </c>
@@ -7228,8 +8884,15 @@
       <c r="E238" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>760</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802374,SASTH46*,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>496</v>
       </c>
@@ -7245,8 +8908,15 @@
       <c r="E239" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>760</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802383,SASTH46*,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>497</v>
       </c>
@@ -7262,8 +8932,15 @@
       <c r="E240" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>760</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802392,SASTH46*,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>498</v>
       </c>
@@ -7279,8 +8956,15 @@
       <c r="E241" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>760</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802409,SASTH46*,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>499</v>
       </c>
@@ -7296,8 +8980,15 @@
       <c r="E242" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>760</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802418,SASTH46*,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>500</v>
       </c>
@@ -7313,8 +9004,15 @@
       <c r="E243" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>760</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802427,SASTH46*,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>501</v>
       </c>
@@ -7330,8 +9028,15 @@
       <c r="E244" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>760</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802436,SASTH46*,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>502</v>
       </c>
@@ -7347,8 +9052,15 @@
       <c r="E245" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>760</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802445,SASTH46*,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>503</v>
       </c>
@@ -7364,8 +9076,15 @@
       <c r="E246" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>760</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802454,SASTH46*,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>504</v>
       </c>
@@ -7381,64 +9100,71 @@
       <c r="E247" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>760</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="3"/>
+        <v>K0103009802463,SASTH46*,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>

--- a/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871FC42-4D17-404D-98C4-A02D0DAF18FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E44C7-D978-154D-BA4B-907F589B84C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2288,9 +2288,6 @@
     <t>K0103009802463@gmail.com</t>
   </si>
   <si>
-    <t>SASTH46*</t>
-  </si>
-  <si>
     <t>cohort1</t>
   </si>
   <si>
@@ -2316,6 +2313,9 @@
   </si>
   <si>
     <t>XII PM</t>
+  </si>
+  <si>
+    <t>SASTH46#</t>
   </si>
 </sst>
 </file>
@@ -3166,7 +3166,7 @@
   <dimension ref="A1:G1042"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G247"/>
+      <selection activeCell="B2" sqref="B2:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G1" t="str">
         <f>CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1)</f>
@@ -3209,7 +3209,7 @@
         <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>152</v>
@@ -3221,11 +3221,11 @@
         <v>505</v>
       </c>
       <c r="F2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G65" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2)</f>
-        <v>K0103009800018,SASTH46*,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
+        <v>K0103009800018,SASTH46#,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3233,7 +3233,7 @@
         <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>153</v>
@@ -3245,11 +3245,11 @@
         <v>506</v>
       </c>
       <c r="F3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800027,SASTH46*,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
+        <v>K0103009800027,SASTH46#,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3257,7 +3257,7 @@
         <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>154</v>
@@ -3269,11 +3269,11 @@
         <v>507</v>
       </c>
       <c r="F4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800036,SASTH46*,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
+        <v>K0103009800036,SASTH46#,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3281,7 +3281,7 @@
         <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>155</v>
@@ -3293,11 +3293,11 @@
         <v>508</v>
       </c>
       <c r="F5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800045,SASTH46*,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
+        <v>K0103009800045,SASTH46#,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3305,7 +3305,7 @@
         <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>156</v>
@@ -3317,11 +3317,11 @@
         <v>509</v>
       </c>
       <c r="F6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800054,SASTH46*,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
+        <v>K0103009800054,SASTH46#,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3329,7 +3329,7 @@
         <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>157</v>
@@ -3341,11 +3341,11 @@
         <v>510</v>
       </c>
       <c r="F7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800063,SASTH46*,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
+        <v>K0103009800063,SASTH46#,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3353,7 +3353,7 @@
         <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>158</v>
@@ -3365,11 +3365,11 @@
         <v>511</v>
       </c>
       <c r="F8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800072,SASTH46*,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
+        <v>K0103009800072,SASTH46#,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3377,7 +3377,7 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>159</v>
@@ -3389,11 +3389,11 @@
         <v>512</v>
       </c>
       <c r="F9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800089,SASTH46*,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
+        <v>K0103009800089,SASTH46#,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3401,7 +3401,7 @@
         <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>160</v>
@@ -3413,11 +3413,11 @@
         <v>513</v>
       </c>
       <c r="F10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800098,SASTH46*,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
+        <v>K0103009800098,SASTH46#,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3425,7 +3425,7 @@
         <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>161</v>
@@ -3437,11 +3437,11 @@
         <v>514</v>
       </c>
       <c r="F11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800107,SASTH46*,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
+        <v>K0103009800107,SASTH46#,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3449,7 +3449,7 @@
         <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>162</v>
@@ -3461,11 +3461,11 @@
         <v>515</v>
       </c>
       <c r="F12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800116,SASTH46*,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
+        <v>K0103009800116,SASTH46#,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3473,7 +3473,7 @@
         <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>163</v>
@@ -3485,11 +3485,11 @@
         <v>516</v>
       </c>
       <c r="F13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800125,SASTH46*,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
+        <v>K0103009800125,SASTH46#,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3497,7 +3497,7 @@
         <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>164</v>
@@ -3509,11 +3509,11 @@
         <v>517</v>
       </c>
       <c r="F14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800134,SASTH46*,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
+        <v>K0103009800134,SASTH46#,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3521,7 +3521,7 @@
         <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>165</v>
@@ -3533,11 +3533,11 @@
         <v>518</v>
       </c>
       <c r="F15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800143,SASTH46*,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
+        <v>K0103009800143,SASTH46#,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3545,7 +3545,7 @@
         <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>166</v>
@@ -3557,11 +3557,11 @@
         <v>519</v>
       </c>
       <c r="F16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800152,SASTH46*,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
+        <v>K0103009800152,SASTH46#,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>167</v>
@@ -3581,11 +3581,11 @@
         <v>520</v>
       </c>
       <c r="F17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800169,SASTH46*,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
+        <v>K0103009800169,SASTH46#,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
         <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>168</v>
@@ -3605,11 +3605,11 @@
         <v>521</v>
       </c>
       <c r="F18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800178,SASTH46*,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
+        <v>K0103009800178,SASTH46#,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3617,7 +3617,7 @@
         <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>169</v>
@@ -3629,11 +3629,11 @@
         <v>522</v>
       </c>
       <c r="F19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800187,SASTH46*,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
+        <v>K0103009800187,SASTH46#,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3641,7 +3641,7 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>170</v>
@@ -3653,11 +3653,11 @@
         <v>523</v>
       </c>
       <c r="F20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800196,SASTH46*,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
+        <v>K0103009800196,SASTH46#,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3665,7 +3665,7 @@
         <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>171</v>
@@ -3677,11 +3677,11 @@
         <v>524</v>
       </c>
       <c r="F21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800205,SASTH46*,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
+        <v>K0103009800205,SASTH46#,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>172</v>
@@ -3701,11 +3701,11 @@
         <v>525</v>
       </c>
       <c r="F22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800214,SASTH46*,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
+        <v>K0103009800214,SASTH46#,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>173</v>
@@ -3725,11 +3725,11 @@
         <v>526</v>
       </c>
       <c r="F23" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800223,SASTH46*,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
+        <v>K0103009800223,SASTH46#,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>174</v>
@@ -3749,11 +3749,11 @@
         <v>527</v>
       </c>
       <c r="F24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800232,SASTH46*,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
+        <v>K0103009800232,SASTH46#,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3761,7 +3761,7 @@
         <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>175</v>
@@ -3773,11 +3773,11 @@
         <v>528</v>
       </c>
       <c r="F25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800249,SASTH46*,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
+        <v>K0103009800249,SASTH46#,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>176</v>
@@ -3797,11 +3797,11 @@
         <v>529</v>
       </c>
       <c r="F26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800258,SASTH46*,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
+        <v>K0103009800258,SASTH46#,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
         <v>284</v>
       </c>
       <c r="B27" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>177</v>
@@ -3821,11 +3821,11 @@
         <v>530</v>
       </c>
       <c r="F27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800267,SASTH46*,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
+        <v>K0103009800267,SASTH46#,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
         <v>285</v>
       </c>
       <c r="B28" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>178</v>
@@ -3845,11 +3845,11 @@
         <v>531</v>
       </c>
       <c r="F28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800276,SASTH46*,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
+        <v>K0103009800276,SASTH46#,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3857,7 +3857,7 @@
         <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>179</v>
@@ -3869,11 +3869,11 @@
         <v>532</v>
       </c>
       <c r="F29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800285,SASTH46*,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
+        <v>K0103009800285,SASTH46#,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>287</v>
       </c>
       <c r="B30" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>180</v>
@@ -3893,11 +3893,11 @@
         <v>533</v>
       </c>
       <c r="F30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800294,SASTH46*,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
+        <v>K0103009800294,SASTH46#,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>288</v>
       </c>
       <c r="B31" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>181</v>
@@ -3917,11 +3917,11 @@
         <v>534</v>
       </c>
       <c r="F31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800303,SASTH46*,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
+        <v>K0103009800303,SASTH46#,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>289</v>
       </c>
       <c r="B32" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>182</v>
@@ -3941,11 +3941,11 @@
         <v>535</v>
       </c>
       <c r="F32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800312,SASTH46*,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
+        <v>K0103009800312,SASTH46#,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
         <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>183</v>
@@ -3965,11 +3965,11 @@
         <v>536</v>
       </c>
       <c r="F33" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800329,SASTH46*,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
+        <v>K0103009800329,SASTH46#,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3977,7 +3977,7 @@
         <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>184</v>
@@ -3989,11 +3989,11 @@
         <v>537</v>
       </c>
       <c r="F34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800338,SASTH46*,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
+        <v>K0103009800338,SASTH46#,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4001,7 +4001,7 @@
         <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>185</v>
@@ -4013,11 +4013,11 @@
         <v>538</v>
       </c>
       <c r="F35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800347,SASTH46*,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
+        <v>K0103009800347,SASTH46#,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4025,7 +4025,7 @@
         <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>186</v>
@@ -4037,11 +4037,11 @@
         <v>539</v>
       </c>
       <c r="F36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800356,SASTH46*,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
+        <v>K0103009800356,SASTH46#,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
         <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>187</v>
@@ -4061,11 +4061,11 @@
         <v>540</v>
       </c>
       <c r="F37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800365,SASTH46*,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
+        <v>K0103009800365,SASTH46#,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4073,7 +4073,7 @@
         <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>188</v>
@@ -4085,11 +4085,11 @@
         <v>541</v>
       </c>
       <c r="F38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800374,SASTH46*,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
+        <v>K0103009800374,SASTH46#,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>189</v>
@@ -4109,11 +4109,11 @@
         <v>542</v>
       </c>
       <c r="F39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800383,SASTH46*,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
+        <v>K0103009800383,SASTH46#,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>190</v>
@@ -4133,11 +4133,11 @@
         <v>543</v>
       </c>
       <c r="F40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800392,SASTH46*,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
+        <v>K0103009800392,SASTH46#,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4145,7 +4145,7 @@
         <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>191</v>
@@ -4157,11 +4157,11 @@
         <v>544</v>
       </c>
       <c r="F41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800409,SASTH46*,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
+        <v>K0103009800409,SASTH46#,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>192</v>
@@ -4181,11 +4181,11 @@
         <v>545</v>
       </c>
       <c r="F42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800418,SASTH46*,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
+        <v>K0103009800418,SASTH46#,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
         <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>193</v>
@@ -4205,11 +4205,11 @@
         <v>546</v>
       </c>
       <c r="F43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800427,SASTH46*,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
+        <v>K0103009800427,SASTH46#,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4217,7 +4217,7 @@
         <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>194</v>
@@ -4229,11 +4229,11 @@
         <v>547</v>
       </c>
       <c r="F44" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800436,SASTH46*,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
+        <v>K0103009800436,SASTH46#,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4241,7 +4241,7 @@
         <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>195</v>
@@ -4253,11 +4253,11 @@
         <v>548</v>
       </c>
       <c r="F45" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800445,SASTH46*,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
+        <v>K0103009800445,SASTH46#,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4265,7 +4265,7 @@
         <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>196</v>
@@ -4277,11 +4277,11 @@
         <v>549</v>
       </c>
       <c r="F46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800454,SASTH46*,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
+        <v>K0103009800454,SASTH46#,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4289,7 +4289,7 @@
         <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>197</v>
@@ -4301,11 +4301,11 @@
         <v>550</v>
       </c>
       <c r="F47" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800463,SASTH46*,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
+        <v>K0103009800463,SASTH46#,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>198</v>
@@ -4325,11 +4325,11 @@
         <v>551</v>
       </c>
       <c r="F48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800472,SASTH46*,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
+        <v>K0103009800472,SASTH46#,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
         <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>199</v>
@@ -4349,11 +4349,11 @@
         <v>552</v>
       </c>
       <c r="F49" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800489,SASTH46*,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
+        <v>K0103009800489,SASTH46#,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>307</v>
       </c>
       <c r="B50" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>200</v>
@@ -4373,11 +4373,11 @@
         <v>553</v>
       </c>
       <c r="F50" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800498,SASTH46*,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
+        <v>K0103009800498,SASTH46#,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>201</v>
@@ -4397,11 +4397,11 @@
         <v>554</v>
       </c>
       <c r="F51" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800507,SASTH46*,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
+        <v>K0103009800507,SASTH46#,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>309</v>
       </c>
       <c r="B52" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>202</v>
@@ -4421,11 +4421,11 @@
         <v>555</v>
       </c>
       <c r="F52" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800516,SASTH46*,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
+        <v>K0103009800516,SASTH46#,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
         <v>310</v>
       </c>
       <c r="B53" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>203</v>
@@ -4445,11 +4445,11 @@
         <v>556</v>
       </c>
       <c r="F53" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800525,SASTH46*,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
+        <v>K0103009800525,SASTH46#,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
         <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>204</v>
@@ -4469,11 +4469,11 @@
         <v>557</v>
       </c>
       <c r="F54" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800534,SASTH46*,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
+        <v>K0103009800534,SASTH46#,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>205</v>
@@ -4493,11 +4493,11 @@
         <v>558</v>
       </c>
       <c r="F55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800543,SASTH46*,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
+        <v>K0103009800543,SASTH46#,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
         <v>313</v>
       </c>
       <c r="B56" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>206</v>
@@ -4517,11 +4517,11 @@
         <v>559</v>
       </c>
       <c r="F56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800552,SASTH46*,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
+        <v>K0103009800552,SASTH46#,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4529,7 +4529,7 @@
         <v>314</v>
       </c>
       <c r="B57" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>207</v>
@@ -4541,11 +4541,11 @@
         <v>560</v>
       </c>
       <c r="F57" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800569,SASTH46*,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
+        <v>K0103009800569,SASTH46#,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4553,7 +4553,7 @@
         <v>315</v>
       </c>
       <c r="B58" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>208</v>
@@ -4565,11 +4565,11 @@
         <v>561</v>
       </c>
       <c r="F58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800578,SASTH46*,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
+        <v>K0103009800578,SASTH46#,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>209</v>
@@ -4589,11 +4589,11 @@
         <v>562</v>
       </c>
       <c r="F59" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800587,SASTH46*,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
+        <v>K0103009800587,SASTH46#,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>317</v>
       </c>
       <c r="B60" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>210</v>
@@ -4613,11 +4613,11 @@
         <v>563</v>
       </c>
       <c r="F60" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800596,SASTH46*,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
+        <v>K0103009800596,SASTH46#,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4625,7 +4625,7 @@
         <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>211</v>
@@ -4637,11 +4637,11 @@
         <v>564</v>
       </c>
       <c r="F61" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800605,SASTH46*,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
+        <v>K0103009800605,SASTH46#,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
         <v>319</v>
       </c>
       <c r="B62" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>212</v>
@@ -4661,11 +4661,11 @@
         <v>565</v>
       </c>
       <c r="F62" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800614,SASTH46*,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
+        <v>K0103009800614,SASTH46#,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>213</v>
@@ -4685,11 +4685,11 @@
         <v>566</v>
       </c>
       <c r="F63" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800623,SASTH46*,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
+        <v>K0103009800623,SASTH46#,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>321</v>
       </c>
       <c r="B64" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>214</v>
@@ -4709,11 +4709,11 @@
         <v>567</v>
       </c>
       <c r="F64" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800632,SASTH46*,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
+        <v>K0103009800632,SASTH46#,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>322</v>
       </c>
       <c r="B65" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>215</v>
@@ -4733,11 +4733,11 @@
         <v>568</v>
       </c>
       <c r="F65" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800649,SASTH46*,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
+        <v>K0103009800649,SASTH46#,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>323</v>
       </c>
       <c r="B66" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>216</v>
@@ -4757,11 +4757,11 @@
         <v>569</v>
       </c>
       <c r="F66" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66:G129" si="1">CONCATENATE(A66,",",B66,",",C66,",",D66,",",E66,",",F66)</f>
-        <v>K0103009800658,SASTH46*,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
+        <v>K0103009800658,SASTH46#,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
         <v>324</v>
       </c>
       <c r="B67" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>217</v>
@@ -4781,11 +4781,11 @@
         <v>570</v>
       </c>
       <c r="F67" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800667,SASTH46*,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
+        <v>K0103009800667,SASTH46#,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
         <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>218</v>
@@ -4805,11 +4805,11 @@
         <v>571</v>
       </c>
       <c r="F68" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800676,SASTH46*,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
+        <v>K0103009800676,SASTH46#,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4817,7 +4817,7 @@
         <v>326</v>
       </c>
       <c r="B69" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>219</v>
@@ -4829,11 +4829,11 @@
         <v>572</v>
       </c>
       <c r="F69" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800685,SASTH46*,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
+        <v>K0103009800685,SASTH46#,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>327</v>
       </c>
       <c r="B70" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>220</v>
@@ -4853,11 +4853,11 @@
         <v>573</v>
       </c>
       <c r="F70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800694,SASTH46*,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
+        <v>K0103009800694,SASTH46#,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>328</v>
       </c>
       <c r="B71" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>221</v>
@@ -4877,11 +4877,11 @@
         <v>574</v>
       </c>
       <c r="F71" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800703,SASTH46*,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
+        <v>K0103009800703,SASTH46#,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>329</v>
       </c>
       <c r="B72" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>222</v>
@@ -4901,11 +4901,11 @@
         <v>575</v>
       </c>
       <c r="F72" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800712,SASTH46*,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
+        <v>K0103009800712,SASTH46#,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>330</v>
       </c>
       <c r="B73" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>223</v>
@@ -4925,11 +4925,11 @@
         <v>576</v>
       </c>
       <c r="F73" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800729,SASTH46*,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
+        <v>K0103009800729,SASTH46#,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4937,7 +4937,7 @@
         <v>331</v>
       </c>
       <c r="B74" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>224</v>
@@ -4949,11 +4949,11 @@
         <v>577</v>
       </c>
       <c r="F74" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800738,SASTH46*,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
+        <v>K0103009800738,SASTH46#,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>332</v>
       </c>
       <c r="B75" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>225</v>
@@ -4973,11 +4973,11 @@
         <v>578</v>
       </c>
       <c r="F75" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800747,SASTH46*,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
+        <v>K0103009800747,SASTH46#,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4985,7 +4985,7 @@
         <v>333</v>
       </c>
       <c r="B76" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>226</v>
@@ -4997,11 +4997,11 @@
         <v>579</v>
       </c>
       <c r="F76" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800756,SASTH46*,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
+        <v>K0103009800756,SASTH46#,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>334</v>
       </c>
       <c r="B77" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>227</v>
@@ -5021,11 +5021,11 @@
         <v>580</v>
       </c>
       <c r="F77" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800765,SASTH46*,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
+        <v>K0103009800765,SASTH46#,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5033,7 +5033,7 @@
         <v>335</v>
       </c>
       <c r="B78" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>228</v>
@@ -5045,11 +5045,11 @@
         <v>581</v>
       </c>
       <c r="F78" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800774,SASTH46*,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
+        <v>K0103009800774,SASTH46#,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5057,7 +5057,7 @@
         <v>336</v>
       </c>
       <c r="B79" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>229</v>
@@ -5069,11 +5069,11 @@
         <v>582</v>
       </c>
       <c r="F79" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800783,SASTH46*,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
+        <v>K0103009800783,SASTH46#,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
         <v>337</v>
       </c>
       <c r="B80" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>230</v>
@@ -5093,11 +5093,11 @@
         <v>583</v>
       </c>
       <c r="F80" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800792,SASTH46*,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
+        <v>K0103009800792,SASTH46#,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5105,7 +5105,7 @@
         <v>338</v>
       </c>
       <c r="B81" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>231</v>
@@ -5117,11 +5117,11 @@
         <v>584</v>
       </c>
       <c r="F81" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800809,SASTH46*,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
+        <v>K0103009800809,SASTH46#,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>339</v>
       </c>
       <c r="B82" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>232</v>
@@ -5141,11 +5141,11 @@
         <v>585</v>
       </c>
       <c r="F82" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800818,SASTH46*,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
+        <v>K0103009800818,SASTH46#,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
         <v>340</v>
       </c>
       <c r="B83" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>233</v>
@@ -5165,11 +5165,11 @@
         <v>586</v>
       </c>
       <c r="F83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800827,SASTH46*,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
+        <v>K0103009800827,SASTH46#,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5177,7 +5177,7 @@
         <v>341</v>
       </c>
       <c r="B84" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>234</v>
@@ -5189,11 +5189,11 @@
         <v>587</v>
       </c>
       <c r="F84" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800836,SASTH46*,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
+        <v>K0103009800836,SASTH46#,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>342</v>
       </c>
       <c r="B85" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>235</v>
@@ -5213,11 +5213,11 @@
         <v>588</v>
       </c>
       <c r="F85" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800845,SASTH46*,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
+        <v>K0103009800845,SASTH46#,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>343</v>
       </c>
       <c r="B86" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>236</v>
@@ -5237,11 +5237,11 @@
         <v>589</v>
       </c>
       <c r="F86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800854,SASTH46*,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
+        <v>K0103009800854,SASTH46#,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5249,7 +5249,7 @@
         <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>237</v>
@@ -5261,11 +5261,11 @@
         <v>590</v>
       </c>
       <c r="F87" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800863,SASTH46*,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
+        <v>K0103009800863,SASTH46#,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5273,7 +5273,7 @@
         <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>238</v>
@@ -5285,11 +5285,11 @@
         <v>591</v>
       </c>
       <c r="F88" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800872,SASTH46*,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
+        <v>K0103009800872,SASTH46#,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>346</v>
       </c>
       <c r="B89" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>239</v>
@@ -5309,11 +5309,11 @@
         <v>592</v>
       </c>
       <c r="F89" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800889,SASTH46*,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
+        <v>K0103009800889,SASTH46#,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>347</v>
       </c>
       <c r="B90" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>240</v>
@@ -5333,11 +5333,11 @@
         <v>593</v>
       </c>
       <c r="F90" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800898,SASTH46*,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
+        <v>K0103009800898,SASTH46#,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5345,7 +5345,7 @@
         <v>348</v>
       </c>
       <c r="B91" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>241</v>
@@ -5357,11 +5357,11 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800907,SASTH46*,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
+        <v>K0103009800907,SASTH46#,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5369,7 +5369,7 @@
         <v>349</v>
       </c>
       <c r="B92" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>242</v>
@@ -5381,11 +5381,11 @@
         <v>595</v>
       </c>
       <c r="F92" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800916,SASTH46*,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
+        <v>K0103009800916,SASTH46#,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
         <v>350</v>
       </c>
       <c r="B93" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>243</v>
@@ -5405,11 +5405,11 @@
         <v>596</v>
       </c>
       <c r="F93" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800925,SASTH46*,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
+        <v>K0103009800925,SASTH46#,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>351</v>
       </c>
       <c r="B94" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>244</v>
@@ -5429,11 +5429,11 @@
         <v>597</v>
       </c>
       <c r="F94" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800934,SASTH46*,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
+        <v>K0103009800934,SASTH46#,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>352</v>
       </c>
       <c r="B95" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>245</v>
@@ -5453,11 +5453,11 @@
         <v>598</v>
       </c>
       <c r="F95" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800943,SASTH46*,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
+        <v>K0103009800943,SASTH46#,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>353</v>
       </c>
       <c r="B96" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>246</v>
@@ -5477,11 +5477,11 @@
         <v>599</v>
       </c>
       <c r="F96" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800952,SASTH46*,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
+        <v>K0103009800952,SASTH46#,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -5489,7 +5489,7 @@
         <v>354</v>
       </c>
       <c r="B97" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>247</v>
@@ -5501,11 +5501,11 @@
         <v>600</v>
       </c>
       <c r="F97" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800969,SASTH46*,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
+        <v>K0103009800969,SASTH46#,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -5513,7 +5513,7 @@
         <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>248</v>
@@ -5525,11 +5525,11 @@
         <v>601</v>
       </c>
       <c r="F98" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800978,SASTH46*,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
+        <v>K0103009800978,SASTH46#,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -5549,11 +5549,11 @@
         <v>602</v>
       </c>
       <c r="F99" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800987,SASTH46*,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
+        <v>K0103009800987,SASTH46#,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -5561,7 +5561,7 @@
         <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>6</v>
@@ -5573,11 +5573,11 @@
         <v>603</v>
       </c>
       <c r="F100" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800996,SASTH46*,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
+        <v>K0103009800996,SASTH46#,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5585,7 +5585,7 @@
         <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>7</v>
@@ -5597,11 +5597,11 @@
         <v>604</v>
       </c>
       <c r="F101" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801005,SASTH46*,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
+        <v>K0103009801005,SASTH46#,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
         <v>359</v>
       </c>
       <c r="B102" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
@@ -5621,11 +5621,11 @@
         <v>605</v>
       </c>
       <c r="F102" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801014,SASTH46*,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
+        <v>K0103009801014,SASTH46#,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5633,7 +5633,7 @@
         <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>9</v>
@@ -5645,11 +5645,11 @@
         <v>606</v>
       </c>
       <c r="F103" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801023,SASTH46*,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
+        <v>K0103009801023,SASTH46#,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5657,7 +5657,7 @@
         <v>361</v>
       </c>
       <c r="B104" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>10</v>
@@ -5669,11 +5669,11 @@
         <v>607</v>
       </c>
       <c r="F104" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801032,SASTH46*,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
+        <v>K0103009801032,SASTH46#,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5681,7 +5681,7 @@
         <v>362</v>
       </c>
       <c r="B105" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
@@ -5693,11 +5693,11 @@
         <v>608</v>
       </c>
       <c r="F105" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801049,SASTH46*,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
+        <v>K0103009801049,SASTH46#,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>363</v>
       </c>
       <c r="B106" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>12</v>
@@ -5717,11 +5717,11 @@
         <v>609</v>
       </c>
       <c r="F106" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801058,SASTH46*,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
+        <v>K0103009801058,SASTH46#,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5729,7 +5729,7 @@
         <v>364</v>
       </c>
       <c r="B107" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>13</v>
@@ -5741,11 +5741,11 @@
         <v>610</v>
       </c>
       <c r="F107" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801067,SASTH46*,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
+        <v>K0103009801067,SASTH46#,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>365</v>
       </c>
       <c r="B108" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>14</v>
@@ -5765,11 +5765,11 @@
         <v>611</v>
       </c>
       <c r="F108" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801076,SASTH46*,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
+        <v>K0103009801076,SASTH46#,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5777,7 +5777,7 @@
         <v>366</v>
       </c>
       <c r="B109" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>15</v>
@@ -5789,11 +5789,11 @@
         <v>612</v>
       </c>
       <c r="F109" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801085,SASTH46*,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
+        <v>K0103009801085,SASTH46#,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>367</v>
       </c>
       <c r="B110" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>16</v>
@@ -5813,11 +5813,11 @@
         <v>613</v>
       </c>
       <c r="F110" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801094,SASTH46*,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
+        <v>K0103009801094,SASTH46#,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@
         <v>368</v>
       </c>
       <c r="B111" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>17</v>
@@ -5837,11 +5837,11 @@
         <v>614</v>
       </c>
       <c r="F111" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801103,SASTH46*,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
+        <v>K0103009801103,SASTH46#,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5849,7 +5849,7 @@
         <v>369</v>
       </c>
       <c r="B112" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>18</v>
@@ -5861,11 +5861,11 @@
         <v>615</v>
       </c>
       <c r="F112" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801112,SASTH46*,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
+        <v>K0103009801112,SASTH46#,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5873,7 +5873,7 @@
         <v>370</v>
       </c>
       <c r="B113" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>19</v>
@@ -5885,11 +5885,11 @@
         <v>616</v>
       </c>
       <c r="F113" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801129,SASTH46*,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
+        <v>K0103009801129,SASTH46#,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5897,7 +5897,7 @@
         <v>371</v>
       </c>
       <c r="B114" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>20</v>
@@ -5909,11 +5909,11 @@
         <v>617</v>
       </c>
       <c r="F114" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801138,SASTH46*,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
+        <v>K0103009801138,SASTH46#,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5921,7 +5921,7 @@
         <v>372</v>
       </c>
       <c r="B115" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>21</v>
@@ -5933,11 +5933,11 @@
         <v>618</v>
       </c>
       <c r="F115" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801147,SASTH46*,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
+        <v>K0103009801147,SASTH46#,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>373</v>
       </c>
       <c r="B116" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>257</v>
@@ -5957,11 +5957,11 @@
         <v>619</v>
       </c>
       <c r="F116" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801156,SASTH46*,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
+        <v>K0103009801156,SASTH46#,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5969,7 +5969,7 @@
         <v>374</v>
       </c>
       <c r="B117" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>22</v>
@@ -5981,11 +5981,11 @@
         <v>620</v>
       </c>
       <c r="F117" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801165,SASTH46*,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
+        <v>K0103009801165,SASTH46#,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5993,7 +5993,7 @@
         <v>375</v>
       </c>
       <c r="B118" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
@@ -6005,11 +6005,11 @@
         <v>621</v>
       </c>
       <c r="F118" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801174,SASTH46*,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
+        <v>K0103009801174,SASTH46#,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -6017,7 +6017,7 @@
         <v>376</v>
       </c>
       <c r="B119" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>24</v>
@@ -6029,11 +6029,11 @@
         <v>622</v>
       </c>
       <c r="F119" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801183,SASTH46*,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
+        <v>K0103009801183,SASTH46#,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6041,7 +6041,7 @@
         <v>377</v>
       </c>
       <c r="B120" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>25</v>
@@ -6053,11 +6053,11 @@
         <v>623</v>
       </c>
       <c r="F120" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801192,SASTH46*,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
+        <v>K0103009801192,SASTH46#,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
         <v>378</v>
       </c>
       <c r="B121" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>26</v>
@@ -6077,11 +6077,11 @@
         <v>624</v>
       </c>
       <c r="F121" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801209,SASTH46*,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
+        <v>K0103009801209,SASTH46#,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -6089,7 +6089,7 @@
         <v>379</v>
       </c>
       <c r="B122" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>27</v>
@@ -6101,11 +6101,11 @@
         <v>625</v>
       </c>
       <c r="F122" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801218,SASTH46*,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
+        <v>K0103009801218,SASTH46#,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
         <v>380</v>
       </c>
       <c r="B123" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>28</v>
@@ -6125,11 +6125,11 @@
         <v>626</v>
       </c>
       <c r="F123" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801227,SASTH46*,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
+        <v>K0103009801227,SASTH46#,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -6137,7 +6137,7 @@
         <v>381</v>
       </c>
       <c r="B124" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>29</v>
@@ -6149,11 +6149,11 @@
         <v>627</v>
       </c>
       <c r="F124" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801236,SASTH46*,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
+        <v>K0103009801236,SASTH46#,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -6161,7 +6161,7 @@
         <v>382</v>
       </c>
       <c r="B125" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>30</v>
@@ -6173,11 +6173,11 @@
         <v>628</v>
       </c>
       <c r="F125" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801245,SASTH46*,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
+        <v>K0103009801245,SASTH46#,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>383</v>
       </c>
       <c r="B126" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>31</v>
@@ -6197,11 +6197,11 @@
         <v>629</v>
       </c>
       <c r="F126" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801254,SASTH46*,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
+        <v>K0103009801254,SASTH46#,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>384</v>
       </c>
       <c r="B127" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>32</v>
@@ -6221,11 +6221,11 @@
         <v>630</v>
       </c>
       <c r="F127" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801263,SASTH46*,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
+        <v>K0103009801263,SASTH46#,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -6233,7 +6233,7 @@
         <v>385</v>
       </c>
       <c r="B128" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>33</v>
@@ -6245,11 +6245,11 @@
         <v>631</v>
       </c>
       <c r="F128" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801272,SASTH46*,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
+        <v>K0103009801272,SASTH46#,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -6257,7 +6257,7 @@
         <v>386</v>
       </c>
       <c r="B129" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>34</v>
@@ -6269,11 +6269,11 @@
         <v>632</v>
       </c>
       <c r="F129" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801289,SASTH46*,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
+        <v>K0103009801289,SASTH46#,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -6281,7 +6281,7 @@
         <v>387</v>
       </c>
       <c r="B130" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>35</v>
@@ -6293,11 +6293,11 @@
         <v>633</v>
       </c>
       <c r="F130" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" ref="G130:G193" si="2">CONCATENATE(A130,",",B130,",",C130,",",D130,",",E130,",",F130)</f>
-        <v>K0103009801298,SASTH46*,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
+        <v>K0103009801298,SASTH46#,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>388</v>
       </c>
       <c r="B131" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>36</v>
@@ -6317,11 +6317,11 @@
         <v>634</v>
       </c>
       <c r="F131" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801307,SASTH46*,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
+        <v>K0103009801307,SASTH46#,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
         <v>389</v>
       </c>
       <c r="B132" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>37</v>
@@ -6341,11 +6341,11 @@
         <v>635</v>
       </c>
       <c r="F132" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801316,SASTH46*,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
+        <v>K0103009801316,SASTH46#,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -6353,7 +6353,7 @@
         <v>390</v>
       </c>
       <c r="B133" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>38</v>
@@ -6365,11 +6365,11 @@
         <v>636</v>
       </c>
       <c r="F133" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801325,SASTH46*,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
+        <v>K0103009801325,SASTH46#,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -6377,7 +6377,7 @@
         <v>391</v>
       </c>
       <c r="B134" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>39</v>
@@ -6389,11 +6389,11 @@
         <v>637</v>
       </c>
       <c r="F134" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801334,SASTH46*,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
+        <v>K0103009801334,SASTH46#,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
         <v>392</v>
       </c>
       <c r="B135" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>40</v>
@@ -6413,11 +6413,11 @@
         <v>638</v>
       </c>
       <c r="F135" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801343,SASTH46*,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
+        <v>K0103009801343,SASTH46#,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -6425,7 +6425,7 @@
         <v>393</v>
       </c>
       <c r="B136" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>41</v>
@@ -6437,11 +6437,11 @@
         <v>639</v>
       </c>
       <c r="F136" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801352,SASTH46*,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
+        <v>K0103009801352,SASTH46#,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6449,7 +6449,7 @@
         <v>394</v>
       </c>
       <c r="B137" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>42</v>
@@ -6461,11 +6461,11 @@
         <v>640</v>
       </c>
       <c r="F137" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801369,SASTH46*,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
+        <v>K0103009801369,SASTH46#,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
         <v>395</v>
       </c>
       <c r="B138" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>43</v>
@@ -6485,11 +6485,11 @@
         <v>641</v>
       </c>
       <c r="F138" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801378,SASTH46*,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
+        <v>K0103009801378,SASTH46#,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -6497,7 +6497,7 @@
         <v>396</v>
       </c>
       <c r="B139" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>44</v>
@@ -6509,11 +6509,11 @@
         <v>642</v>
       </c>
       <c r="F139" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801387,SASTH46*,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
+        <v>K0103009801387,SASTH46#,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -6521,7 +6521,7 @@
         <v>397</v>
       </c>
       <c r="B140" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>45</v>
@@ -6533,11 +6533,11 @@
         <v>643</v>
       </c>
       <c r="F140" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801396,SASTH46*,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
+        <v>K0103009801396,SASTH46#,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
         <v>398</v>
       </c>
       <c r="B141" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>46</v>
@@ -6557,11 +6557,11 @@
         <v>644</v>
       </c>
       <c r="F141" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801405,SASTH46*,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
+        <v>K0103009801405,SASTH46#,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>399</v>
       </c>
       <c r="B142" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>47</v>
@@ -6581,11 +6581,11 @@
         <v>645</v>
       </c>
       <c r="F142" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801414,SASTH46*,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
+        <v>K0103009801414,SASTH46#,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -6593,7 +6593,7 @@
         <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>48</v>
@@ -6605,11 +6605,11 @@
         <v>646</v>
       </c>
       <c r="F143" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801423,SASTH46*,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
+        <v>K0103009801423,SASTH46#,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -6617,7 +6617,7 @@
         <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>49</v>
@@ -6629,11 +6629,11 @@
         <v>647</v>
       </c>
       <c r="F144" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801432,SASTH46*,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
+        <v>K0103009801432,SASTH46#,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -6641,7 +6641,7 @@
         <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>50</v>
@@ -6653,11 +6653,11 @@
         <v>648</v>
       </c>
       <c r="F145" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801449,SASTH46*,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
+        <v>K0103009801449,SASTH46#,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -6665,7 +6665,7 @@
         <v>403</v>
       </c>
       <c r="B146" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>51</v>
@@ -6677,11 +6677,11 @@
         <v>649</v>
       </c>
       <c r="F146" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801458,SASTH46*,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
+        <v>K0103009801458,SASTH46#,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -6689,7 +6689,7 @@
         <v>404</v>
       </c>
       <c r="B147" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>90</v>
@@ -6701,11 +6701,11 @@
         <v>650</v>
       </c>
       <c r="F147" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801467,SASTH46*,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
+        <v>K0103009801467,SASTH46#,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>405</v>
       </c>
       <c r="B148" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>91</v>
@@ -6725,11 +6725,11 @@
         <v>651</v>
       </c>
       <c r="F148" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801476,SASTH46*,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
+        <v>K0103009801476,SASTH46#,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -6737,7 +6737,7 @@
         <v>406</v>
       </c>
       <c r="B149" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>92</v>
@@ -6749,11 +6749,11 @@
         <v>652</v>
       </c>
       <c r="F149" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801485,SASTH46*,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
+        <v>K0103009801485,SASTH46#,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -6761,7 +6761,7 @@
         <v>407</v>
       </c>
       <c r="B150" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>93</v>
@@ -6773,11 +6773,11 @@
         <v>653</v>
       </c>
       <c r="F150" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801494,SASTH46*,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
+        <v>K0103009801494,SASTH46#,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -6785,7 +6785,7 @@
         <v>408</v>
       </c>
       <c r="B151" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>94</v>
@@ -6797,11 +6797,11 @@
         <v>654</v>
       </c>
       <c r="F151" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801503,SASTH46*,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
+        <v>K0103009801503,SASTH46#,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -6809,7 +6809,7 @@
         <v>409</v>
       </c>
       <c r="B152" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>95</v>
@@ -6821,11 +6821,11 @@
         <v>655</v>
       </c>
       <c r="F152" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801512,SASTH46*,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
+        <v>K0103009801512,SASTH46#,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>410</v>
       </c>
       <c r="B153" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>96</v>
@@ -6845,11 +6845,11 @@
         <v>656</v>
       </c>
       <c r="F153" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801529,SASTH46*,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
+        <v>K0103009801529,SASTH46#,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -6857,7 +6857,7 @@
         <v>411</v>
       </c>
       <c r="B154" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>97</v>
@@ -6869,11 +6869,11 @@
         <v>657</v>
       </c>
       <c r="F154" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801538,SASTH46*,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
+        <v>K0103009801538,SASTH46#,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -6881,7 +6881,7 @@
         <v>412</v>
       </c>
       <c r="B155" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>98</v>
@@ -6893,11 +6893,11 @@
         <v>658</v>
       </c>
       <c r="F155" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801547,SASTH46*,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
+        <v>K0103009801547,SASTH46#,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -6905,7 +6905,7 @@
         <v>413</v>
       </c>
       <c r="B156" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>99</v>
@@ -6917,11 +6917,11 @@
         <v>659</v>
       </c>
       <c r="F156" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801556,SASTH46*,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
+        <v>K0103009801556,SASTH46#,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -6929,7 +6929,7 @@
         <v>414</v>
       </c>
       <c r="B157" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>100</v>
@@ -6941,11 +6941,11 @@
         <v>660</v>
       </c>
       <c r="F157" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801565,SASTH46*,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
+        <v>K0103009801565,SASTH46#,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -6953,7 +6953,7 @@
         <v>415</v>
       </c>
       <c r="B158" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>101</v>
@@ -6965,11 +6965,11 @@
         <v>661</v>
       </c>
       <c r="F158" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801574,SASTH46*,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
+        <v>K0103009801574,SASTH46#,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -6977,7 +6977,7 @@
         <v>416</v>
       </c>
       <c r="B159" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>102</v>
@@ -6989,11 +6989,11 @@
         <v>662</v>
       </c>
       <c r="F159" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801583,SASTH46*,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
+        <v>K0103009801583,SASTH46#,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -7001,7 +7001,7 @@
         <v>417</v>
       </c>
       <c r="B160" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>103</v>
@@ -7013,11 +7013,11 @@
         <v>663</v>
       </c>
       <c r="F160" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801592,SASTH46*,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
+        <v>K0103009801592,SASTH46#,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -7025,7 +7025,7 @@
         <v>418</v>
       </c>
       <c r="B161" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>104</v>
@@ -7037,11 +7037,11 @@
         <v>664</v>
       </c>
       <c r="F161" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801609,SASTH46*,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
+        <v>K0103009801609,SASTH46#,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -7049,7 +7049,7 @@
         <v>419</v>
       </c>
       <c r="B162" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>105</v>
@@ -7061,11 +7061,11 @@
         <v>665</v>
       </c>
       <c r="F162" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801618,SASTH46*,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
+        <v>K0103009801618,SASTH46#,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -7073,7 +7073,7 @@
         <v>420</v>
       </c>
       <c r="B163" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>106</v>
@@ -7085,11 +7085,11 @@
         <v>666</v>
       </c>
       <c r="F163" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801627,SASTH46*,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
+        <v>K0103009801627,SASTH46#,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -7097,7 +7097,7 @@
         <v>421</v>
       </c>
       <c r="B164" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>107</v>
@@ -7109,11 +7109,11 @@
         <v>667</v>
       </c>
       <c r="F164" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801636,SASTH46*,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
+        <v>K0103009801636,SASTH46#,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>422</v>
       </c>
       <c r="B165" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>108</v>
@@ -7133,11 +7133,11 @@
         <v>668</v>
       </c>
       <c r="F165" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801645,SASTH46*,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
+        <v>K0103009801645,SASTH46#,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -7145,7 +7145,7 @@
         <v>423</v>
       </c>
       <c r="B166" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>109</v>
@@ -7157,11 +7157,11 @@
         <v>669</v>
       </c>
       <c r="F166" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801654,SASTH46*,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
+        <v>K0103009801654,SASTH46#,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -7169,7 +7169,7 @@
         <v>424</v>
       </c>
       <c r="B167" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>110</v>
@@ -7181,11 +7181,11 @@
         <v>670</v>
       </c>
       <c r="F167" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801663,SASTH46*,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
+        <v>K0103009801663,SASTH46#,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -7193,7 +7193,7 @@
         <v>425</v>
       </c>
       <c r="B168" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>111</v>
@@ -7205,11 +7205,11 @@
         <v>671</v>
       </c>
       <c r="F168" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801672,SASTH46*,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
+        <v>K0103009801672,SASTH46#,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -7217,7 +7217,7 @@
         <v>426</v>
       </c>
       <c r="B169" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>112</v>
@@ -7229,11 +7229,11 @@
         <v>672</v>
       </c>
       <c r="F169" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801689,SASTH46*,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
+        <v>K0103009801689,SASTH46#,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -7241,7 +7241,7 @@
         <v>427</v>
       </c>
       <c r="B170" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>113</v>
@@ -7253,11 +7253,11 @@
         <v>673</v>
       </c>
       <c r="F170" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801698,SASTH46*,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
+        <v>K0103009801698,SASTH46#,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -7265,7 +7265,7 @@
         <v>428</v>
       </c>
       <c r="B171" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>114</v>
@@ -7277,11 +7277,11 @@
         <v>674</v>
       </c>
       <c r="F171" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801707,SASTH46*,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
+        <v>K0103009801707,SASTH46#,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -7289,7 +7289,7 @@
         <v>429</v>
       </c>
       <c r="B172" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>115</v>
@@ -7301,11 +7301,11 @@
         <v>675</v>
       </c>
       <c r="F172" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801716,SASTH46*,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
+        <v>K0103009801716,SASTH46#,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -7313,7 +7313,7 @@
         <v>430</v>
       </c>
       <c r="B173" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>116</v>
@@ -7325,11 +7325,11 @@
         <v>676</v>
       </c>
       <c r="F173" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801725,SASTH46*,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
+        <v>K0103009801725,SASTH46#,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -7337,7 +7337,7 @@
         <v>431</v>
       </c>
       <c r="B174" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>117</v>
@@ -7349,11 +7349,11 @@
         <v>677</v>
       </c>
       <c r="F174" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801734,SASTH46*,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
+        <v>K0103009801734,SASTH46#,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -7361,7 +7361,7 @@
         <v>432</v>
       </c>
       <c r="B175" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>118</v>
@@ -7373,11 +7373,11 @@
         <v>678</v>
       </c>
       <c r="F175" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801743,SASTH46*,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
+        <v>K0103009801743,SASTH46#,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -7385,7 +7385,7 @@
         <v>433</v>
       </c>
       <c r="B176" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>119</v>
@@ -7397,11 +7397,11 @@
         <v>679</v>
       </c>
       <c r="F176" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801752,SASTH46*,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
+        <v>K0103009801752,SASTH46#,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -7409,7 +7409,7 @@
         <v>434</v>
       </c>
       <c r="B177" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>120</v>
@@ -7421,11 +7421,11 @@
         <v>680</v>
       </c>
       <c r="F177" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801769,SASTH46*,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
+        <v>K0103009801769,SASTH46#,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -7433,7 +7433,7 @@
         <v>435</v>
       </c>
       <c r="B178" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>121</v>
@@ -7445,11 +7445,11 @@
         <v>681</v>
       </c>
       <c r="F178" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801778,SASTH46*,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
+        <v>K0103009801778,SASTH46#,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -7457,7 +7457,7 @@
         <v>436</v>
       </c>
       <c r="B179" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>122</v>
@@ -7469,11 +7469,11 @@
         <v>682</v>
       </c>
       <c r="F179" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801787,SASTH46*,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
+        <v>K0103009801787,SASTH46#,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -7481,7 +7481,7 @@
         <v>437</v>
       </c>
       <c r="B180" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>123</v>
@@ -7493,11 +7493,11 @@
         <v>683</v>
       </c>
       <c r="F180" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801796,SASTH46*,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
+        <v>K0103009801796,SASTH46#,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>438</v>
       </c>
       <c r="B181" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>124</v>
@@ -7517,11 +7517,11 @@
         <v>684</v>
       </c>
       <c r="F181" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801805,SASTH46*,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
+        <v>K0103009801805,SASTH46#,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
         <v>439</v>
       </c>
       <c r="B182" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>125</v>
@@ -7541,11 +7541,11 @@
         <v>685</v>
       </c>
       <c r="F182" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801814,SASTH46*,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
+        <v>K0103009801814,SASTH46#,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -7553,7 +7553,7 @@
         <v>440</v>
       </c>
       <c r="B183" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>126</v>
@@ -7565,11 +7565,11 @@
         <v>686</v>
       </c>
       <c r="F183" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801823,SASTH46*,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
+        <v>K0103009801823,SASTH46#,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -7577,7 +7577,7 @@
         <v>441</v>
       </c>
       <c r="B184" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>127</v>
@@ -7589,11 +7589,11 @@
         <v>687</v>
       </c>
       <c r="F184" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801832,SASTH46*,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
+        <v>K0103009801832,SASTH46#,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -7601,7 +7601,7 @@
         <v>442</v>
       </c>
       <c r="B185" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>128</v>
@@ -7613,11 +7613,11 @@
         <v>688</v>
       </c>
       <c r="F185" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801849,SASTH46*,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
+        <v>K0103009801849,SASTH46#,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>443</v>
       </c>
       <c r="B186" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>129</v>
@@ -7637,11 +7637,11 @@
         <v>689</v>
       </c>
       <c r="F186" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801858,SASTH46*,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
+        <v>K0103009801858,SASTH46#,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -7649,7 +7649,7 @@
         <v>444</v>
       </c>
       <c r="B187" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>130</v>
@@ -7661,11 +7661,11 @@
         <v>690</v>
       </c>
       <c r="F187" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801867,SASTH46*,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
+        <v>K0103009801867,SASTH46#,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -7673,7 +7673,7 @@
         <v>445</v>
       </c>
       <c r="B188" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>131</v>
@@ -7685,11 +7685,11 @@
         <v>691</v>
       </c>
       <c r="F188" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801876,SASTH46*,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
+        <v>K0103009801876,SASTH46#,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -7697,7 +7697,7 @@
         <v>446</v>
       </c>
       <c r="B189" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>132</v>
@@ -7709,11 +7709,11 @@
         <v>692</v>
       </c>
       <c r="F189" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801885,SASTH46*,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
+        <v>K0103009801885,SASTH46#,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
         <v>447</v>
       </c>
       <c r="B190" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>133</v>
@@ -7733,11 +7733,11 @@
         <v>693</v>
       </c>
       <c r="F190" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801894,SASTH46*,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
+        <v>K0103009801894,SASTH46#,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -7745,7 +7745,7 @@
         <v>448</v>
       </c>
       <c r="B191" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>134</v>
@@ -7757,11 +7757,11 @@
         <v>694</v>
       </c>
       <c r="F191" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801903,SASTH46*,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
+        <v>K0103009801903,SASTH46#,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -7769,7 +7769,7 @@
         <v>449</v>
       </c>
       <c r="B192" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>135</v>
@@ -7781,11 +7781,11 @@
         <v>695</v>
       </c>
       <c r="F192" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801912,SASTH46*,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
+        <v>K0103009801912,SASTH46#,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -7793,7 +7793,7 @@
         <v>450</v>
       </c>
       <c r="B193" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>136</v>
@@ -7805,11 +7805,11 @@
         <v>696</v>
       </c>
       <c r="F193" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801929,SASTH46*,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
+        <v>K0103009801929,SASTH46#,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -7817,7 +7817,7 @@
         <v>451</v>
       </c>
       <c r="B194" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>137</v>
@@ -7829,11 +7829,11 @@
         <v>697</v>
       </c>
       <c r="F194" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" ref="G194:G247" si="3">CONCATENATE(A194,",",B194,",",C194,",",D194,",",E194,",",F194)</f>
-        <v>K0103009801938,SASTH46*,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
+        <v>K0103009801938,SASTH46#,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -7841,7 +7841,7 @@
         <v>452</v>
       </c>
       <c r="B195" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>138</v>
@@ -7853,11 +7853,11 @@
         <v>698</v>
       </c>
       <c r="F195" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801947,SASTH46*,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
+        <v>K0103009801947,SASTH46#,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -7865,7 +7865,7 @@
         <v>453</v>
       </c>
       <c r="B196" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>139</v>
@@ -7877,11 +7877,11 @@
         <v>699</v>
       </c>
       <c r="F196" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801956,SASTH46*,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
+        <v>K0103009801956,SASTH46#,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -7889,7 +7889,7 @@
         <v>454</v>
       </c>
       <c r="B197" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>140</v>
@@ -7901,11 +7901,11 @@
         <v>700</v>
       </c>
       <c r="F197" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801965,SASTH46*,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
+        <v>K0103009801965,SASTH46#,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -7913,7 +7913,7 @@
         <v>455</v>
       </c>
       <c r="B198" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>141</v>
@@ -7925,11 +7925,11 @@
         <v>701</v>
       </c>
       <c r="F198" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801974,SASTH46*,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
+        <v>K0103009801974,SASTH46#,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -7937,7 +7937,7 @@
         <v>456</v>
       </c>
       <c r="B199" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>142</v>
@@ -7949,11 +7949,11 @@
         <v>702</v>
       </c>
       <c r="F199" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801983,SASTH46*,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
+        <v>K0103009801983,SASTH46#,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -7961,7 +7961,7 @@
         <v>457</v>
       </c>
       <c r="B200" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>143</v>
@@ -7973,11 +7973,11 @@
         <v>703</v>
       </c>
       <c r="F200" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801992,SASTH46*,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
+        <v>K0103009801992,SASTH46#,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -7985,7 +7985,7 @@
         <v>458</v>
       </c>
       <c r="B201" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>144</v>
@@ -7997,11 +7997,11 @@
         <v>704</v>
       </c>
       <c r="F201" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802009,SASTH46*,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
+        <v>K0103009802009,SASTH46#,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -8009,7 +8009,7 @@
         <v>459</v>
       </c>
       <c r="B202" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>145</v>
@@ -8021,11 +8021,11 @@
         <v>705</v>
       </c>
       <c r="F202" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802018,SASTH46*,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
+        <v>K0103009802018,SASTH46#,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -8033,7 +8033,7 @@
         <v>460</v>
       </c>
       <c r="B203" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>146</v>
@@ -8045,11 +8045,11 @@
         <v>706</v>
       </c>
       <c r="F203" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802027,SASTH46*,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
+        <v>K0103009802027,SASTH46#,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
         <v>461</v>
       </c>
       <c r="B204" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>147</v>
@@ -8069,11 +8069,11 @@
         <v>707</v>
       </c>
       <c r="F204" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802036,SASTH46*,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
+        <v>K0103009802036,SASTH46#,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -8081,7 +8081,7 @@
         <v>462</v>
       </c>
       <c r="B205" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>148</v>
@@ -8093,11 +8093,11 @@
         <v>708</v>
       </c>
       <c r="F205" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802045,SASTH46*,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
+        <v>K0103009802045,SASTH46#,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -8105,7 +8105,7 @@
         <v>463</v>
       </c>
       <c r="B206" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>149</v>
@@ -8117,11 +8117,11 @@
         <v>709</v>
       </c>
       <c r="F206" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802054,SASTH46*,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
+        <v>K0103009802054,SASTH46#,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -8129,7 +8129,7 @@
         <v>464</v>
       </c>
       <c r="B207" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>150</v>
@@ -8141,11 +8141,11 @@
         <v>710</v>
       </c>
       <c r="F207" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802063,SASTH46*,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
+        <v>K0103009802063,SASTH46#,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -8153,7 +8153,7 @@
         <v>465</v>
       </c>
       <c r="B208" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>151</v>
@@ -8165,11 +8165,11 @@
         <v>711</v>
       </c>
       <c r="F208" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802072,SASTH46*,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
+        <v>K0103009802072,SASTH46#,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -8177,7 +8177,7 @@
         <v>466</v>
       </c>
       <c r="B209" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>52</v>
@@ -8189,11 +8189,11 @@
         <v>712</v>
       </c>
       <c r="F209" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802089,SASTH46*,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
+        <v>K0103009802089,SASTH46#,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -8201,7 +8201,7 @@
         <v>467</v>
       </c>
       <c r="B210" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>53</v>
@@ -8213,11 +8213,11 @@
         <v>713</v>
       </c>
       <c r="F210" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802098,SASTH46*,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
+        <v>K0103009802098,SASTH46#,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -8225,7 +8225,7 @@
         <v>468</v>
       </c>
       <c r="B211" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>54</v>
@@ -8237,11 +8237,11 @@
         <v>714</v>
       </c>
       <c r="F211" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802107,SASTH46*,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
+        <v>K0103009802107,SASTH46#,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -8249,7 +8249,7 @@
         <v>469</v>
       </c>
       <c r="B212" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>55</v>
@@ -8261,11 +8261,11 @@
         <v>715</v>
       </c>
       <c r="F212" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802116,SASTH46*,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
+        <v>K0103009802116,SASTH46#,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -8273,7 +8273,7 @@
         <v>470</v>
       </c>
       <c r="B213" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>56</v>
@@ -8285,11 +8285,11 @@
         <v>716</v>
       </c>
       <c r="F213" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802125,SASTH46*,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
+        <v>K0103009802125,SASTH46#,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -8297,7 +8297,7 @@
         <v>471</v>
       </c>
       <c r="B214" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>57</v>
@@ -8309,11 +8309,11 @@
         <v>717</v>
       </c>
       <c r="F214" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802134,SASTH46*,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
+        <v>K0103009802134,SASTH46#,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -8321,7 +8321,7 @@
         <v>472</v>
       </c>
       <c r="B215" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>58</v>
@@ -8333,11 +8333,11 @@
         <v>718</v>
       </c>
       <c r="F215" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802143,SASTH46*,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
+        <v>K0103009802143,SASTH46#,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>473</v>
       </c>
       <c r="B216" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>59</v>
@@ -8357,11 +8357,11 @@
         <v>719</v>
       </c>
       <c r="F216" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802152,SASTH46*,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
+        <v>K0103009802152,SASTH46#,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -8369,7 +8369,7 @@
         <v>474</v>
       </c>
       <c r="B217" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>60</v>
@@ -8381,11 +8381,11 @@
         <v>720</v>
       </c>
       <c r="F217" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802169,SASTH46*,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
+        <v>K0103009802169,SASTH46#,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -8393,7 +8393,7 @@
         <v>475</v>
       </c>
       <c r="B218" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>61</v>
@@ -8405,11 +8405,11 @@
         <v>721</v>
       </c>
       <c r="F218" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802178,SASTH46*,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
+        <v>K0103009802178,SASTH46#,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -8417,7 +8417,7 @@
         <v>476</v>
       </c>
       <c r="B219" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>62</v>
@@ -8429,11 +8429,11 @@
         <v>722</v>
       </c>
       <c r="F219" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802187,SASTH46*,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
+        <v>K0103009802187,SASTH46#,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -8441,7 +8441,7 @@
         <v>477</v>
       </c>
       <c r="B220" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>63</v>
@@ -8453,11 +8453,11 @@
         <v>723</v>
       </c>
       <c r="F220" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802196,SASTH46*,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
+        <v>K0103009802196,SASTH46#,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -8465,7 +8465,7 @@
         <v>478</v>
       </c>
       <c r="B221" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>64</v>
@@ -8477,11 +8477,11 @@
         <v>724</v>
       </c>
       <c r="F221" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802205,SASTH46*,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
+        <v>K0103009802205,SASTH46#,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -8489,7 +8489,7 @@
         <v>479</v>
       </c>
       <c r="B222" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>65</v>
@@ -8501,11 +8501,11 @@
         <v>725</v>
       </c>
       <c r="F222" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802214,SASTH46*,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
+        <v>K0103009802214,SASTH46#,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -8513,7 +8513,7 @@
         <v>480</v>
       </c>
       <c r="B223" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>66</v>
@@ -8525,11 +8525,11 @@
         <v>726</v>
       </c>
       <c r="F223" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802223,SASTH46*,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
+        <v>K0103009802223,SASTH46#,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -8537,7 +8537,7 @@
         <v>481</v>
       </c>
       <c r="B224" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>67</v>
@@ -8549,11 +8549,11 @@
         <v>727</v>
       </c>
       <c r="F224" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802232,SASTH46*,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
+        <v>K0103009802232,SASTH46#,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
         <v>482</v>
       </c>
       <c r="B225" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>68</v>
@@ -8573,11 +8573,11 @@
         <v>728</v>
       </c>
       <c r="F225" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802249,SASTH46*,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
+        <v>K0103009802249,SASTH46#,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -8585,7 +8585,7 @@
         <v>483</v>
       </c>
       <c r="B226" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>69</v>
@@ -8597,11 +8597,11 @@
         <v>729</v>
       </c>
       <c r="F226" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802258,SASTH46*,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
+        <v>K0103009802258,SASTH46#,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -8609,7 +8609,7 @@
         <v>484</v>
       </c>
       <c r="B227" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>70</v>
@@ -8621,11 +8621,11 @@
         <v>730</v>
       </c>
       <c r="F227" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802267,SASTH46*,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
+        <v>K0103009802267,SASTH46#,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -8633,7 +8633,7 @@
         <v>485</v>
       </c>
       <c r="B228" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>71</v>
@@ -8645,11 +8645,11 @@
         <v>731</v>
       </c>
       <c r="F228" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802276,SASTH46*,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
+        <v>K0103009802276,SASTH46#,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -8657,7 +8657,7 @@
         <v>486</v>
       </c>
       <c r="B229" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>72</v>
@@ -8669,11 +8669,11 @@
         <v>732</v>
       </c>
       <c r="F229" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802285,SASTH46*,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
+        <v>K0103009802285,SASTH46#,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -8681,7 +8681,7 @@
         <v>487</v>
       </c>
       <c r="B230" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>73</v>
@@ -8693,11 +8693,11 @@
         <v>733</v>
       </c>
       <c r="F230" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802294,SASTH46*,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
+        <v>K0103009802294,SASTH46#,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -8705,7 +8705,7 @@
         <v>488</v>
       </c>
       <c r="B231" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>74</v>
@@ -8717,11 +8717,11 @@
         <v>734</v>
       </c>
       <c r="F231" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802303,SASTH46*,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
+        <v>K0103009802303,SASTH46#,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -8729,7 +8729,7 @@
         <v>489</v>
       </c>
       <c r="B232" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>75</v>
@@ -8741,11 +8741,11 @@
         <v>735</v>
       </c>
       <c r="F232" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802312,SASTH46*,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
+        <v>K0103009802312,SASTH46#,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -8753,7 +8753,7 @@
         <v>490</v>
       </c>
       <c r="B233" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>76</v>
@@ -8765,11 +8765,11 @@
         <v>736</v>
       </c>
       <c r="F233" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802329,SASTH46*,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
+        <v>K0103009802329,SASTH46#,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -8777,7 +8777,7 @@
         <v>491</v>
       </c>
       <c r="B234" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>258</v>
@@ -8789,11 +8789,11 @@
         <v>737</v>
       </c>
       <c r="F234" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802338,SASTH46*,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
+        <v>K0103009802338,SASTH46#,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -8801,7 +8801,7 @@
         <v>492</v>
       </c>
       <c r="B235" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>77</v>
@@ -8813,11 +8813,11 @@
         <v>738</v>
       </c>
       <c r="F235" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802347,SASTH46*,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
+        <v>K0103009802347,SASTH46#,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -8825,7 +8825,7 @@
         <v>493</v>
       </c>
       <c r="B236" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>78</v>
@@ -8837,11 +8837,11 @@
         <v>739</v>
       </c>
       <c r="F236" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802356,SASTH46*,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
+        <v>K0103009802356,SASTH46#,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -8849,7 +8849,7 @@
         <v>494</v>
       </c>
       <c r="B237" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>79</v>
@@ -8861,11 +8861,11 @@
         <v>740</v>
       </c>
       <c r="F237" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802365,SASTH46*,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
+        <v>K0103009802365,SASTH46#,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -8873,7 +8873,7 @@
         <v>495</v>
       </c>
       <c r="B238" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>80</v>
@@ -8885,11 +8885,11 @@
         <v>741</v>
       </c>
       <c r="F238" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802374,SASTH46*,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
+        <v>K0103009802374,SASTH46#,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -8897,7 +8897,7 @@
         <v>496</v>
       </c>
       <c r="B239" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>81</v>
@@ -8909,11 +8909,11 @@
         <v>742</v>
       </c>
       <c r="F239" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802383,SASTH46*,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
+        <v>K0103009802383,SASTH46#,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -8921,7 +8921,7 @@
         <v>497</v>
       </c>
       <c r="B240" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>82</v>
@@ -8933,11 +8933,11 @@
         <v>743</v>
       </c>
       <c r="F240" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802392,SASTH46*,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
+        <v>K0103009802392,SASTH46#,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -8945,7 +8945,7 @@
         <v>498</v>
       </c>
       <c r="B241" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>83</v>
@@ -8957,11 +8957,11 @@
         <v>744</v>
       </c>
       <c r="F241" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802409,SASTH46*,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
+        <v>K0103009802409,SASTH46#,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -8969,7 +8969,7 @@
         <v>499</v>
       </c>
       <c r="B242" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>84</v>
@@ -8981,11 +8981,11 @@
         <v>745</v>
       </c>
       <c r="F242" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802418,SASTH46*,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
+        <v>K0103009802418,SASTH46#,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -8993,7 +8993,7 @@
         <v>500</v>
       </c>
       <c r="B243" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>85</v>
@@ -9005,11 +9005,11 @@
         <v>746</v>
       </c>
       <c r="F243" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802427,SASTH46*,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
+        <v>K0103009802427,SASTH46#,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -9017,7 +9017,7 @@
         <v>501</v>
       </c>
       <c r="B244" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>86</v>
@@ -9029,11 +9029,11 @@
         <v>747</v>
       </c>
       <c r="F244" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802436,SASTH46*,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
+        <v>K0103009802436,SASTH46#,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -9041,7 +9041,7 @@
         <v>502</v>
       </c>
       <c r="B245" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>87</v>
@@ -9053,11 +9053,11 @@
         <v>748</v>
       </c>
       <c r="F245" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802445,SASTH46*,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
+        <v>K0103009802445,SASTH46#,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -9065,7 +9065,7 @@
         <v>503</v>
       </c>
       <c r="B246" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>88</v>
@@ -9077,11 +9077,11 @@
         <v>749</v>
       </c>
       <c r="F246" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802454,SASTH46*,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
+        <v>K0103009802454,SASTH46#,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -9089,7 +9089,7 @@
         <v>504</v>
       </c>
       <c r="B247" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>89</v>
@@ -9101,11 +9101,11 @@
         <v>750</v>
       </c>
       <c r="F247" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802463,SASTH46*,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
+        <v>K0103009802463,SASTH46#,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">

--- a/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E44C7-D978-154D-BA4B-907F589B84C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3082CA-82AB-0747-A501-E7744C5562B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,7 +2315,7 @@
     <t>XII PM</t>
   </si>
   <si>
-    <t>SASTH46#</t>
+    <t>SASTH46@</t>
   </si>
 </sst>
 </file>
@@ -2805,9 +2805,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3166,7 +3167,7 @@
   <dimension ref="A1:G1042"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B247"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3208,7 +3209,7 @@
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3225,14 +3226,14 @@
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G65" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2)</f>
-        <v>K0103009800018,SASTH46#,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
+        <v>K0103009800018,SASTH46@,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3249,14 +3250,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800027,SASTH46#,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
+        <v>K0103009800027,SASTH46@,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3273,14 +3274,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800036,SASTH46#,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
+        <v>K0103009800036,SASTH46@,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3297,14 +3298,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800045,SASTH46#,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
+        <v>K0103009800045,SASTH46@,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3321,14 +3322,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800054,SASTH46#,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
+        <v>K0103009800054,SASTH46@,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3345,14 +3346,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800063,SASTH46#,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
+        <v>K0103009800063,SASTH46@,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3369,14 +3370,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800072,SASTH46#,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
+        <v>K0103009800072,SASTH46@,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3393,14 +3394,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800089,SASTH46#,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
+        <v>K0103009800089,SASTH46@,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3417,14 +3418,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800098,SASTH46#,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
+        <v>K0103009800098,SASTH46@,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3441,14 +3442,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800107,SASTH46#,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
+        <v>K0103009800107,SASTH46@,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3465,14 +3466,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800116,SASTH46#,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
+        <v>K0103009800116,SASTH46@,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3489,14 +3490,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800125,SASTH46#,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
+        <v>K0103009800125,SASTH46@,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3513,14 +3514,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800134,SASTH46#,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
+        <v>K0103009800134,SASTH46@,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3537,14 +3538,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800143,SASTH46#,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
+        <v>K0103009800143,SASTH46@,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3561,14 +3562,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800152,SASTH46#,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
+        <v>K0103009800152,SASTH46@,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3585,14 +3586,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800169,SASTH46#,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
+        <v>K0103009800169,SASTH46@,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3609,14 +3610,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800178,SASTH46#,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
+        <v>K0103009800178,SASTH46@,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3633,14 +3634,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800187,SASTH46#,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
+        <v>K0103009800187,SASTH46@,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3657,14 +3658,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800196,SASTH46#,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
+        <v>K0103009800196,SASTH46@,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3681,14 +3682,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800205,SASTH46#,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
+        <v>K0103009800205,SASTH46@,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3705,14 +3706,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800214,SASTH46#,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
+        <v>K0103009800214,SASTH46@,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3729,14 +3730,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800223,SASTH46#,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
+        <v>K0103009800223,SASTH46@,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3753,14 +3754,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800232,SASTH46#,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
+        <v>K0103009800232,SASTH46@,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3777,14 +3778,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800249,SASTH46#,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
+        <v>K0103009800249,SASTH46@,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3801,14 +3802,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800258,SASTH46#,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
+        <v>K0103009800258,SASTH46@,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3825,14 +3826,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800267,SASTH46#,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
+        <v>K0103009800267,SASTH46@,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3849,14 +3850,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800276,SASTH46#,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
+        <v>K0103009800276,SASTH46@,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3873,14 +3874,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800285,SASTH46#,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
+        <v>K0103009800285,SASTH46@,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3897,14 +3898,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800294,SASTH46#,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
+        <v>K0103009800294,SASTH46@,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3921,14 +3922,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800303,SASTH46#,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
+        <v>K0103009800303,SASTH46@,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3945,14 +3946,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800312,SASTH46#,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
+        <v>K0103009800312,SASTH46@,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3969,14 +3970,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800329,SASTH46#,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
+        <v>K0103009800329,SASTH46@,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3993,14 +3994,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800338,SASTH46#,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
+        <v>K0103009800338,SASTH46@,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4017,14 +4018,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800347,SASTH46#,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
+        <v>K0103009800347,SASTH46@,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4041,14 +4042,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800356,SASTH46#,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
+        <v>K0103009800356,SASTH46@,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4065,14 +4066,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800365,SASTH46#,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
+        <v>K0103009800365,SASTH46@,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4089,14 +4090,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800374,SASTH46#,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
+        <v>K0103009800374,SASTH46@,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4113,14 +4114,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800383,SASTH46#,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
+        <v>K0103009800383,SASTH46@,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4137,14 +4138,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800392,SASTH46#,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
+        <v>K0103009800392,SASTH46@,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4161,14 +4162,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800409,SASTH46#,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
+        <v>K0103009800409,SASTH46@,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4185,14 +4186,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800418,SASTH46#,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
+        <v>K0103009800418,SASTH46@,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4209,14 +4210,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800427,SASTH46#,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
+        <v>K0103009800427,SASTH46@,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4233,14 +4234,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800436,SASTH46#,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
+        <v>K0103009800436,SASTH46@,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4257,14 +4258,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800445,SASTH46#,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
+        <v>K0103009800445,SASTH46@,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4281,14 +4282,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800454,SASTH46#,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
+        <v>K0103009800454,SASTH46@,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4305,14 +4306,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800463,SASTH46#,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
+        <v>K0103009800463,SASTH46@,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4329,14 +4330,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800472,SASTH46#,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
+        <v>K0103009800472,SASTH46@,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4353,14 +4354,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800489,SASTH46#,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
+        <v>K0103009800489,SASTH46@,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4377,14 +4378,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800498,SASTH46#,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
+        <v>K0103009800498,SASTH46@,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4401,14 +4402,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800507,SASTH46#,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
+        <v>K0103009800507,SASTH46@,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4425,14 +4426,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800516,SASTH46#,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
+        <v>K0103009800516,SASTH46@,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4449,14 +4450,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800525,SASTH46#,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
+        <v>K0103009800525,SASTH46@,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4473,14 +4474,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800534,SASTH46#,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
+        <v>K0103009800534,SASTH46@,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4497,14 +4498,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800543,SASTH46#,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
+        <v>K0103009800543,SASTH46@,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4521,14 +4522,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800552,SASTH46#,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
+        <v>K0103009800552,SASTH46@,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4545,14 +4546,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800569,SASTH46#,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
+        <v>K0103009800569,SASTH46@,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4569,14 +4570,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800578,SASTH46#,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
+        <v>K0103009800578,SASTH46@,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4593,14 +4594,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800587,SASTH46#,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
+        <v>K0103009800587,SASTH46@,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4617,14 +4618,14 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800596,SASTH46#,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
+        <v>K0103009800596,SASTH46@,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4641,14 +4642,14 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800605,SASTH46#,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
+        <v>K0103009800605,SASTH46@,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4665,14 +4666,14 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800614,SASTH46#,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
+        <v>K0103009800614,SASTH46@,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4689,14 +4690,14 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800623,SASTH46#,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
+        <v>K0103009800623,SASTH46@,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4713,14 +4714,14 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800632,SASTH46#,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
+        <v>K0103009800632,SASTH46@,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4737,14 +4738,14 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800649,SASTH46#,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
+        <v>K0103009800649,SASTH46@,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4761,14 +4762,14 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66:G129" si="1">CONCATENATE(A66,",",B66,",",C66,",",D66,",",E66,",",F66)</f>
-        <v>K0103009800658,SASTH46#,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
+        <v>K0103009800658,SASTH46@,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4785,14 +4786,14 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800667,SASTH46#,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
+        <v>K0103009800667,SASTH46@,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4809,14 +4810,14 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800676,SASTH46#,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
+        <v>K0103009800676,SASTH46@,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4833,14 +4834,14 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800685,SASTH46#,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
+        <v>K0103009800685,SASTH46@,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4857,14 +4858,14 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800694,SASTH46#,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
+        <v>K0103009800694,SASTH46@,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4881,14 +4882,14 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800703,SASTH46#,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
+        <v>K0103009800703,SASTH46@,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4905,14 +4906,14 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800712,SASTH46#,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
+        <v>K0103009800712,SASTH46@,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4929,14 +4930,14 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800729,SASTH46#,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
+        <v>K0103009800729,SASTH46@,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4953,14 +4954,14 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800738,SASTH46#,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
+        <v>K0103009800738,SASTH46@,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4977,14 +4978,14 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800747,SASTH46#,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
+        <v>K0103009800747,SASTH46@,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -5001,14 +5002,14 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800756,SASTH46#,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
+        <v>K0103009800756,SASTH46@,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5025,14 +5026,14 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800765,SASTH46#,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
+        <v>K0103009800765,SASTH46@,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -5049,14 +5050,14 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800774,SASTH46#,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
+        <v>K0103009800774,SASTH46@,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -5073,14 +5074,14 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800783,SASTH46#,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
+        <v>K0103009800783,SASTH46@,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5097,14 +5098,14 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800792,SASTH46#,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
+        <v>K0103009800792,SASTH46@,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5121,14 +5122,14 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800809,SASTH46#,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
+        <v>K0103009800809,SASTH46@,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5145,14 +5146,14 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800818,SASTH46#,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
+        <v>K0103009800818,SASTH46@,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5169,14 +5170,14 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800827,SASTH46#,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
+        <v>K0103009800827,SASTH46@,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5193,14 +5194,14 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800836,SASTH46#,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
+        <v>K0103009800836,SASTH46@,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5217,14 +5218,14 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800845,SASTH46#,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
+        <v>K0103009800845,SASTH46@,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5241,14 +5242,14 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800854,SASTH46#,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
+        <v>K0103009800854,SASTH46@,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5265,14 +5266,14 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800863,SASTH46#,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
+        <v>K0103009800863,SASTH46@,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5289,14 +5290,14 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800872,SASTH46#,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
+        <v>K0103009800872,SASTH46@,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5313,14 +5314,14 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800889,SASTH46#,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
+        <v>K0103009800889,SASTH46@,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5337,14 +5338,14 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800898,SASTH46#,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
+        <v>K0103009800898,SASTH46@,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5361,14 +5362,14 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800907,SASTH46#,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
+        <v>K0103009800907,SASTH46@,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -5385,14 +5386,14 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800916,SASTH46#,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
+        <v>K0103009800916,SASTH46@,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5409,14 +5410,14 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800925,SASTH46#,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
+        <v>K0103009800925,SASTH46@,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -5433,14 +5434,14 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800934,SASTH46#,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
+        <v>K0103009800934,SASTH46@,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -5457,14 +5458,14 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800943,SASTH46#,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
+        <v>K0103009800943,SASTH46@,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5481,14 +5482,14 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800952,SASTH46#,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
+        <v>K0103009800952,SASTH46@,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5505,14 +5506,14 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800969,SASTH46#,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
+        <v>K0103009800969,SASTH46@,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5529,14 +5530,14 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800978,SASTH46#,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
+        <v>K0103009800978,SASTH46@,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5553,14 +5554,14 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800987,SASTH46#,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
+        <v>K0103009800987,SASTH46@,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5577,14 +5578,14 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800996,SASTH46#,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
+        <v>K0103009800996,SASTH46@,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5601,14 +5602,14 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801005,SASTH46#,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
+        <v>K0103009801005,SASTH46@,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5625,14 +5626,14 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801014,SASTH46#,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
+        <v>K0103009801014,SASTH46@,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5649,14 +5650,14 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801023,SASTH46#,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
+        <v>K0103009801023,SASTH46@,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5673,14 +5674,14 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801032,SASTH46#,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
+        <v>K0103009801032,SASTH46@,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5697,14 +5698,14 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801049,SASTH46#,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
+        <v>K0103009801049,SASTH46@,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5721,14 +5722,14 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801058,SASTH46#,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
+        <v>K0103009801058,SASTH46@,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5745,14 +5746,14 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801067,SASTH46#,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
+        <v>K0103009801067,SASTH46@,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5769,14 +5770,14 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801076,SASTH46#,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
+        <v>K0103009801076,SASTH46@,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5793,14 +5794,14 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801085,SASTH46#,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
+        <v>K0103009801085,SASTH46@,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5817,14 +5818,14 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801094,SASTH46#,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
+        <v>K0103009801094,SASTH46@,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -5841,14 +5842,14 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801103,SASTH46#,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
+        <v>K0103009801103,SASTH46@,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5865,14 +5866,14 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801112,SASTH46#,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
+        <v>K0103009801112,SASTH46@,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5889,14 +5890,14 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801129,SASTH46#,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
+        <v>K0103009801129,SASTH46@,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5913,14 +5914,14 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801138,SASTH46#,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
+        <v>K0103009801138,SASTH46@,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5937,14 +5938,14 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801147,SASTH46#,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
+        <v>K0103009801147,SASTH46@,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5961,14 +5962,14 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801156,SASTH46#,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
+        <v>K0103009801156,SASTH46@,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5985,14 +5986,14 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801165,SASTH46#,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
+        <v>K0103009801165,SASTH46@,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -6009,14 +6010,14 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801174,SASTH46#,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
+        <v>K0103009801174,SASTH46@,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -6033,14 +6034,14 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801183,SASTH46#,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
+        <v>K0103009801183,SASTH46@,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -6057,14 +6058,14 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801192,SASTH46#,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
+        <v>K0103009801192,SASTH46@,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -6081,14 +6082,14 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801209,SASTH46#,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
+        <v>K0103009801209,SASTH46@,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -6105,14 +6106,14 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801218,SASTH46#,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
+        <v>K0103009801218,SASTH46@,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -6129,14 +6130,14 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801227,SASTH46#,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
+        <v>K0103009801227,SASTH46@,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -6153,14 +6154,14 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801236,SASTH46#,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
+        <v>K0103009801236,SASTH46@,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -6177,14 +6178,14 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801245,SASTH46#,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
+        <v>K0103009801245,SASTH46@,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -6201,14 +6202,14 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801254,SASTH46#,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
+        <v>K0103009801254,SASTH46@,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -6225,14 +6226,14 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801263,SASTH46#,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
+        <v>K0103009801263,SASTH46@,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -6249,14 +6250,14 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801272,SASTH46#,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
+        <v>K0103009801272,SASTH46@,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -6273,14 +6274,14 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801289,SASTH46#,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
+        <v>K0103009801289,SASTH46@,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -6297,14 +6298,14 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" ref="G130:G193" si="2">CONCATENATE(A130,",",B130,",",C130,",",D130,",",E130,",",F130)</f>
-        <v>K0103009801298,SASTH46#,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
+        <v>K0103009801298,SASTH46@,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -6321,14 +6322,14 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801307,SASTH46#,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
+        <v>K0103009801307,SASTH46@,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -6345,14 +6346,14 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801316,SASTH46#,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
+        <v>K0103009801316,SASTH46@,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -6369,14 +6370,14 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801325,SASTH46#,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
+        <v>K0103009801325,SASTH46@,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -6393,14 +6394,14 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801334,SASTH46#,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
+        <v>K0103009801334,SASTH46@,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -6417,14 +6418,14 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801343,SASTH46#,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
+        <v>K0103009801343,SASTH46@,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -6441,14 +6442,14 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801352,SASTH46#,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
+        <v>K0103009801352,SASTH46@,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -6465,14 +6466,14 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801369,SASTH46#,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
+        <v>K0103009801369,SASTH46@,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -6489,14 +6490,14 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801378,SASTH46#,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
+        <v>K0103009801378,SASTH46@,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -6513,14 +6514,14 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801387,SASTH46#,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
+        <v>K0103009801387,SASTH46@,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -6537,14 +6538,14 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801396,SASTH46#,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
+        <v>K0103009801396,SASTH46@,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -6561,14 +6562,14 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801405,SASTH46#,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
+        <v>K0103009801405,SASTH46@,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -6585,14 +6586,14 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801414,SASTH46#,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
+        <v>K0103009801414,SASTH46@,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -6609,14 +6610,14 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801423,SASTH46#,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
+        <v>K0103009801423,SASTH46@,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -6633,14 +6634,14 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801432,SASTH46#,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
+        <v>K0103009801432,SASTH46@,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -6657,14 +6658,14 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801449,SASTH46#,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
+        <v>K0103009801449,SASTH46@,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -6681,14 +6682,14 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801458,SASTH46#,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
+        <v>K0103009801458,SASTH46@,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -6705,14 +6706,14 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801467,SASTH46#,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
+        <v>K0103009801467,SASTH46@,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -6729,14 +6730,14 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801476,SASTH46#,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
+        <v>K0103009801476,SASTH46@,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -6753,14 +6754,14 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801485,SASTH46#,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
+        <v>K0103009801485,SASTH46@,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -6777,14 +6778,14 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801494,SASTH46#,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
+        <v>K0103009801494,SASTH46@,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -6801,14 +6802,14 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801503,SASTH46#,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
+        <v>K0103009801503,SASTH46@,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -6825,14 +6826,14 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801512,SASTH46#,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
+        <v>K0103009801512,SASTH46@,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -6849,14 +6850,14 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801529,SASTH46#,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
+        <v>K0103009801529,SASTH46@,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -6873,14 +6874,14 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801538,SASTH46#,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
+        <v>K0103009801538,SASTH46@,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -6897,14 +6898,14 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801547,SASTH46#,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
+        <v>K0103009801547,SASTH46@,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -6921,14 +6922,14 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801556,SASTH46#,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
+        <v>K0103009801556,SASTH46@,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -6945,14 +6946,14 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801565,SASTH46#,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
+        <v>K0103009801565,SASTH46@,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -6969,14 +6970,14 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801574,SASTH46#,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
+        <v>K0103009801574,SASTH46@,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -6993,14 +6994,14 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801583,SASTH46#,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
+        <v>K0103009801583,SASTH46@,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -7017,14 +7018,14 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801592,SASTH46#,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
+        <v>K0103009801592,SASTH46@,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -7041,14 +7042,14 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801609,SASTH46#,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
+        <v>K0103009801609,SASTH46@,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -7065,14 +7066,14 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801618,SASTH46#,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
+        <v>K0103009801618,SASTH46@,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -7089,14 +7090,14 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801627,SASTH46#,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
+        <v>K0103009801627,SASTH46@,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -7113,14 +7114,14 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801636,SASTH46#,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
+        <v>K0103009801636,SASTH46@,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -7137,14 +7138,14 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801645,SASTH46#,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
+        <v>K0103009801645,SASTH46@,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -7161,14 +7162,14 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801654,SASTH46#,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
+        <v>K0103009801654,SASTH46@,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -7185,14 +7186,14 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801663,SASTH46#,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
+        <v>K0103009801663,SASTH46@,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -7209,14 +7210,14 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801672,SASTH46#,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
+        <v>K0103009801672,SASTH46@,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -7233,14 +7234,14 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801689,SASTH46#,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
+        <v>K0103009801689,SASTH46@,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -7257,14 +7258,14 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801698,SASTH46#,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
+        <v>K0103009801698,SASTH46@,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -7281,14 +7282,14 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801707,SASTH46#,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
+        <v>K0103009801707,SASTH46@,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -7305,14 +7306,14 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801716,SASTH46#,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
+        <v>K0103009801716,SASTH46@,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -7329,14 +7330,14 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801725,SASTH46#,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
+        <v>K0103009801725,SASTH46@,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -7353,14 +7354,14 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801734,SASTH46#,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
+        <v>K0103009801734,SASTH46@,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -7377,14 +7378,14 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801743,SASTH46#,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
+        <v>K0103009801743,SASTH46@,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -7401,14 +7402,14 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801752,SASTH46#,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
+        <v>K0103009801752,SASTH46@,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -7425,14 +7426,14 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801769,SASTH46#,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
+        <v>K0103009801769,SASTH46@,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -7449,14 +7450,14 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801778,SASTH46#,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
+        <v>K0103009801778,SASTH46@,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -7473,14 +7474,14 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801787,SASTH46#,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
+        <v>K0103009801787,SASTH46@,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -7497,14 +7498,14 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801796,SASTH46#,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
+        <v>K0103009801796,SASTH46@,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -7521,14 +7522,14 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801805,SASTH46#,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
+        <v>K0103009801805,SASTH46@,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -7545,14 +7546,14 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801814,SASTH46#,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
+        <v>K0103009801814,SASTH46@,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -7569,14 +7570,14 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801823,SASTH46#,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
+        <v>K0103009801823,SASTH46@,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -7593,14 +7594,14 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801832,SASTH46#,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
+        <v>K0103009801832,SASTH46@,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -7617,14 +7618,14 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801849,SASTH46#,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
+        <v>K0103009801849,SASTH46@,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -7641,14 +7642,14 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801858,SASTH46#,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
+        <v>K0103009801858,SASTH46@,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -7665,14 +7666,14 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801867,SASTH46#,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
+        <v>K0103009801867,SASTH46@,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -7689,14 +7690,14 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801876,SASTH46#,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
+        <v>K0103009801876,SASTH46@,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -7713,14 +7714,14 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801885,SASTH46#,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
+        <v>K0103009801885,SASTH46@,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -7737,14 +7738,14 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801894,SASTH46#,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
+        <v>K0103009801894,SASTH46@,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -7761,14 +7762,14 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801903,SASTH46#,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
+        <v>K0103009801903,SASTH46@,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -7785,14 +7786,14 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801912,SASTH46#,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
+        <v>K0103009801912,SASTH46@,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -7809,14 +7810,14 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801929,SASTH46#,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
+        <v>K0103009801929,SASTH46@,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -7833,14 +7834,14 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" ref="G194:G247" si="3">CONCATENATE(A194,",",B194,",",C194,",",D194,",",E194,",",F194)</f>
-        <v>K0103009801938,SASTH46#,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
+        <v>K0103009801938,SASTH46@,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -7857,14 +7858,14 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801947,SASTH46#,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
+        <v>K0103009801947,SASTH46@,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -7881,14 +7882,14 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801956,SASTH46#,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
+        <v>K0103009801956,SASTH46@,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -7905,14 +7906,14 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801965,SASTH46#,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
+        <v>K0103009801965,SASTH46@,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -7929,14 +7930,14 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801974,SASTH46#,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
+        <v>K0103009801974,SASTH46@,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -7953,14 +7954,14 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801983,SASTH46#,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
+        <v>K0103009801983,SASTH46@,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -7977,14 +7978,14 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801992,SASTH46#,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
+        <v>K0103009801992,SASTH46@,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -8001,14 +8002,14 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802009,SASTH46#,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
+        <v>K0103009802009,SASTH46@,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -8025,14 +8026,14 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802018,SASTH46#,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
+        <v>K0103009802018,SASTH46@,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -8049,14 +8050,14 @@
       </c>
       <c r="G203" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802027,SASTH46#,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
+        <v>K0103009802027,SASTH46@,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -8073,14 +8074,14 @@
       </c>
       <c r="G204" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802036,SASTH46#,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
+        <v>K0103009802036,SASTH46@,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -8097,14 +8098,14 @@
       </c>
       <c r="G205" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802045,SASTH46#,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
+        <v>K0103009802045,SASTH46@,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -8121,14 +8122,14 @@
       </c>
       <c r="G206" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802054,SASTH46#,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
+        <v>K0103009802054,SASTH46@,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -8145,14 +8146,14 @@
       </c>
       <c r="G207" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802063,SASTH46#,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
+        <v>K0103009802063,SASTH46@,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -8169,14 +8170,14 @@
       </c>
       <c r="G208" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802072,SASTH46#,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
+        <v>K0103009802072,SASTH46@,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -8193,14 +8194,14 @@
       </c>
       <c r="G209" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802089,SASTH46#,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
+        <v>K0103009802089,SASTH46@,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -8217,14 +8218,14 @@
       </c>
       <c r="G210" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802098,SASTH46#,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
+        <v>K0103009802098,SASTH46@,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -8241,14 +8242,14 @@
       </c>
       <c r="G211" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802107,SASTH46#,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
+        <v>K0103009802107,SASTH46@,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -8265,14 +8266,14 @@
       </c>
       <c r="G212" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802116,SASTH46#,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
+        <v>K0103009802116,SASTH46@,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -8289,14 +8290,14 @@
       </c>
       <c r="G213" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802125,SASTH46#,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
+        <v>K0103009802125,SASTH46@,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -8313,14 +8314,14 @@
       </c>
       <c r="G214" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802134,SASTH46#,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
+        <v>K0103009802134,SASTH46@,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -8337,14 +8338,14 @@
       </c>
       <c r="G215" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802143,SASTH46#,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
+        <v>K0103009802143,SASTH46@,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -8361,14 +8362,14 @@
       </c>
       <c r="G216" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802152,SASTH46#,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
+        <v>K0103009802152,SASTH46@,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -8385,14 +8386,14 @@
       </c>
       <c r="G217" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802169,SASTH46#,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
+        <v>K0103009802169,SASTH46@,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -8409,14 +8410,14 @@
       </c>
       <c r="G218" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802178,SASTH46#,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
+        <v>K0103009802178,SASTH46@,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -8433,14 +8434,14 @@
       </c>
       <c r="G219" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802187,SASTH46#,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
+        <v>K0103009802187,SASTH46@,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -8457,14 +8458,14 @@
       </c>
       <c r="G220" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802196,SASTH46#,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
+        <v>K0103009802196,SASTH46@,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -8481,14 +8482,14 @@
       </c>
       <c r="G221" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802205,SASTH46#,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
+        <v>K0103009802205,SASTH46@,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -8505,14 +8506,14 @@
       </c>
       <c r="G222" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802214,SASTH46#,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
+        <v>K0103009802214,SASTH46@,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -8529,14 +8530,14 @@
       </c>
       <c r="G223" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802223,SASTH46#,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
+        <v>K0103009802223,SASTH46@,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -8553,14 +8554,14 @@
       </c>
       <c r="G224" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802232,SASTH46#,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
+        <v>K0103009802232,SASTH46@,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -8577,14 +8578,14 @@
       </c>
       <c r="G225" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802249,SASTH46#,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
+        <v>K0103009802249,SASTH46@,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -8601,14 +8602,14 @@
       </c>
       <c r="G226" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802258,SASTH46#,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
+        <v>K0103009802258,SASTH46@,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -8625,14 +8626,14 @@
       </c>
       <c r="G227" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802267,SASTH46#,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
+        <v>K0103009802267,SASTH46@,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -8649,14 +8650,14 @@
       </c>
       <c r="G228" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802276,SASTH46#,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
+        <v>K0103009802276,SASTH46@,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -8673,14 +8674,14 @@
       </c>
       <c r="G229" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802285,SASTH46#,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
+        <v>K0103009802285,SASTH46@,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -8697,14 +8698,14 @@
       </c>
       <c r="G230" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802294,SASTH46#,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
+        <v>K0103009802294,SASTH46@,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -8721,14 +8722,14 @@
       </c>
       <c r="G231" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802303,SASTH46#,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
+        <v>K0103009802303,SASTH46@,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -8745,14 +8746,14 @@
       </c>
       <c r="G232" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802312,SASTH46#,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
+        <v>K0103009802312,SASTH46@,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -8769,14 +8770,14 @@
       </c>
       <c r="G233" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802329,SASTH46#,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
+        <v>K0103009802329,SASTH46@,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -8793,14 +8794,14 @@
       </c>
       <c r="G234" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802338,SASTH46#,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
+        <v>K0103009802338,SASTH46@,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -8817,14 +8818,14 @@
       </c>
       <c r="G235" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802347,SASTH46#,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
+        <v>K0103009802347,SASTH46@,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -8841,14 +8842,14 @@
       </c>
       <c r="G236" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802356,SASTH46#,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
+        <v>K0103009802356,SASTH46@,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -8865,14 +8866,14 @@
       </c>
       <c r="G237" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802365,SASTH46#,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
+        <v>K0103009802365,SASTH46@,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -8889,14 +8890,14 @@
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802374,SASTH46#,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
+        <v>K0103009802374,SASTH46@,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -8913,14 +8914,14 @@
       </c>
       <c r="G239" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802383,SASTH46#,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
+        <v>K0103009802383,SASTH46@,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -8937,14 +8938,14 @@
       </c>
       <c r="G240" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802392,SASTH46#,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
+        <v>K0103009802392,SASTH46@,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -8961,14 +8962,14 @@
       </c>
       <c r="G241" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802409,SASTH46#,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
+        <v>K0103009802409,SASTH46@,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -8985,14 +8986,14 @@
       </c>
       <c r="G242" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802418,SASTH46#,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
+        <v>K0103009802418,SASTH46@,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -9009,14 +9010,14 @@
       </c>
       <c r="G243" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802427,SASTH46#,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
+        <v>K0103009802427,SASTH46@,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -9033,14 +9034,14 @@
       </c>
       <c r="G244" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802436,SASTH46#,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
+        <v>K0103009802436,SASTH46@,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -9057,14 +9058,14 @@
       </c>
       <c r="G245" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802445,SASTH46#,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
+        <v>K0103009802445,SASTH46@,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -9081,14 +9082,14 @@
       </c>
       <c r="G246" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802454,SASTH46#,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
+        <v>K0103009802454,SASTH46@,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -9105,7 +9106,7 @@
       </c>
       <c r="G247" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802463,SASTH46#,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
+        <v>K0103009802463,SASTH46@,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">

--- a/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE XII SAS 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3082CA-82AB-0747-A501-E7744C5562B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC111F33-73C7-3949-BECD-19D7A38DCD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,14 +2315,14 @@
     <t>XII PM</t>
   </si>
   <si>
-    <t>SASTH46@</t>
+    <t>SASTH46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2462,6 +2462,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2805,10 +2811,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3167,7 +3172,7 @@
   <dimension ref="A1:G1042"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3209,7 +3214,7 @@
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>760</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3226,14 +3231,14 @@
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G65" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2)</f>
-        <v>K0103009800018,SASTH46@,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
+        <v>K0103009800018,SASTH46,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>760</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3250,14 +3255,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800027,SASTH46@,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
+        <v>K0103009800027,SASTH46,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>760</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3274,14 +3279,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800036,SASTH46@,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
+        <v>K0103009800036,SASTH46,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>760</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3298,14 +3303,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800045,SASTH46@,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
+        <v>K0103009800045,SASTH46,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>760</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3322,14 +3327,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800054,SASTH46@,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
+        <v>K0103009800054,SASTH46,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>760</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3346,14 +3351,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800063,SASTH46@,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
+        <v>K0103009800063,SASTH46,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>760</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3370,14 +3375,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800072,SASTH46@,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
+        <v>K0103009800072,SASTH46,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>760</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3394,14 +3399,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800089,SASTH46@,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
+        <v>K0103009800089,SASTH46,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>760</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3418,14 +3423,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800098,SASTH46@,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
+        <v>K0103009800098,SASTH46,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>760</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3442,14 +3447,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800107,SASTH46@,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
+        <v>K0103009800107,SASTH46,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>760</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3466,14 +3471,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800116,SASTH46@,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
+        <v>K0103009800116,SASTH46,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>760</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3490,14 +3495,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800125,SASTH46@,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
+        <v>K0103009800125,SASTH46,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>760</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3514,14 +3519,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800134,SASTH46@,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
+        <v>K0103009800134,SASTH46,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>760</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3538,14 +3543,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800143,SASTH46@,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
+        <v>K0103009800143,SASTH46,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>760</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3562,14 +3567,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800152,SASTH46@,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
+        <v>K0103009800152,SASTH46,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>760</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3586,14 +3591,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800169,SASTH46@,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
+        <v>K0103009800169,SASTH46,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>760</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3610,14 +3615,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800178,SASTH46@,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
+        <v>K0103009800178,SASTH46,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>760</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3634,14 +3639,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800187,SASTH46@,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
+        <v>K0103009800187,SASTH46,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>760</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3658,14 +3663,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800196,SASTH46@,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
+        <v>K0103009800196,SASTH46,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>760</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3682,14 +3687,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800205,SASTH46@,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
+        <v>K0103009800205,SASTH46,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>760</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3706,14 +3711,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800214,SASTH46@,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
+        <v>K0103009800214,SASTH46,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>760</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3730,14 +3735,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800223,SASTH46@,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
+        <v>K0103009800223,SASTH46,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>760</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3754,14 +3759,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800232,SASTH46@,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
+        <v>K0103009800232,SASTH46,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>760</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3778,14 +3783,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800249,SASTH46@,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
+        <v>K0103009800249,SASTH46,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>760</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3802,14 +3807,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800258,SASTH46@,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
+        <v>K0103009800258,SASTH46,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>760</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3826,14 +3831,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800267,SASTH46@,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
+        <v>K0103009800267,SASTH46,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>760</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3850,14 +3855,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800276,SASTH46@,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
+        <v>K0103009800276,SASTH46,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>760</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3874,14 +3879,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800285,SASTH46@,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
+        <v>K0103009800285,SASTH46,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>760</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3898,14 +3903,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800294,SASTH46@,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
+        <v>K0103009800294,SASTH46,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>760</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3922,14 +3927,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800303,SASTH46@,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
+        <v>K0103009800303,SASTH46,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>760</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3946,14 +3951,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800312,SASTH46@,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
+        <v>K0103009800312,SASTH46,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>760</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3970,14 +3975,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800329,SASTH46@,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
+        <v>K0103009800329,SASTH46,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>760</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3994,14 +3999,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800338,SASTH46@,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
+        <v>K0103009800338,SASTH46,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>760</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4018,14 +4023,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800347,SASTH46@,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
+        <v>K0103009800347,SASTH46,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4042,14 +4047,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800356,SASTH46@,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
+        <v>K0103009800356,SASTH46,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>760</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4066,14 +4071,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800365,SASTH46@,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
+        <v>K0103009800365,SASTH46,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>760</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4090,14 +4095,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800374,SASTH46@,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
+        <v>K0103009800374,SASTH46,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>760</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4114,14 +4119,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800383,SASTH46@,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
+        <v>K0103009800383,SASTH46,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>760</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4138,14 +4143,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800392,SASTH46@,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
+        <v>K0103009800392,SASTH46,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>760</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4162,14 +4167,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800409,SASTH46@,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
+        <v>K0103009800409,SASTH46,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>760</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4186,14 +4191,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800418,SASTH46@,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
+        <v>K0103009800418,SASTH46,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>760</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4210,14 +4215,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800427,SASTH46@,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
+        <v>K0103009800427,SASTH46,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>760</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4234,14 +4239,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800436,SASTH46@,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
+        <v>K0103009800436,SASTH46,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>760</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4258,14 +4263,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800445,SASTH46@,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
+        <v>K0103009800445,SASTH46,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4282,14 +4287,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800454,SASTH46@,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
+        <v>K0103009800454,SASTH46,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>760</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4306,14 +4311,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800463,SASTH46@,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
+        <v>K0103009800463,SASTH46,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>760</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4330,14 +4335,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800472,SASTH46@,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
+        <v>K0103009800472,SASTH46,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>760</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4354,14 +4359,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800489,SASTH46@,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
+        <v>K0103009800489,SASTH46,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>760</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4378,14 +4383,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800498,SASTH46@,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
+        <v>K0103009800498,SASTH46,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>760</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4402,14 +4407,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800507,SASTH46@,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
+        <v>K0103009800507,SASTH46,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>760</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4426,14 +4431,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800516,SASTH46@,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
+        <v>K0103009800516,SASTH46,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>760</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4450,14 +4455,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800525,SASTH46@,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
+        <v>K0103009800525,SASTH46,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>760</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4474,14 +4479,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800534,SASTH46@,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
+        <v>K0103009800534,SASTH46,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>760</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4498,14 +4503,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800543,SASTH46@,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
+        <v>K0103009800543,SASTH46,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>760</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4522,14 +4527,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800552,SASTH46@,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
+        <v>K0103009800552,SASTH46,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>760</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4546,14 +4551,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800569,SASTH46@,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
+        <v>K0103009800569,SASTH46,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>760</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4570,14 +4575,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800578,SASTH46@,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
+        <v>K0103009800578,SASTH46,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>760</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4594,14 +4599,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800587,SASTH46@,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
+        <v>K0103009800587,SASTH46,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>760</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4618,14 +4623,14 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800596,SASTH46@,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
+        <v>K0103009800596,SASTH46,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>760</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4642,14 +4647,14 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800605,SASTH46@,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
+        <v>K0103009800605,SASTH46,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>760</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4666,14 +4671,14 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800614,SASTH46@,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
+        <v>K0103009800614,SASTH46,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>760</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4690,14 +4695,14 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800623,SASTH46@,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
+        <v>K0103009800623,SASTH46,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>760</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4714,14 +4719,14 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800632,SASTH46@,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
+        <v>K0103009800632,SASTH46,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>760</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4738,14 +4743,14 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>K0103009800649,SASTH46@,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
+        <v>K0103009800649,SASTH46,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>760</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4762,14 +4767,14 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66:G129" si="1">CONCATENATE(A66,",",B66,",",C66,",",D66,",",E66,",",F66)</f>
-        <v>K0103009800658,SASTH46@,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
+        <v>K0103009800658,SASTH46,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>760</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4786,14 +4791,14 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800667,SASTH46@,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
+        <v>K0103009800667,SASTH46,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>760</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4810,14 +4815,14 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800676,SASTH46@,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
+        <v>K0103009800676,SASTH46,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>760</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4834,14 +4839,14 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800685,SASTH46@,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
+        <v>K0103009800685,SASTH46,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>760</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4858,14 +4863,14 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800694,SASTH46@,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
+        <v>K0103009800694,SASTH46,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>760</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4882,14 +4887,14 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800703,SASTH46@,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
+        <v>K0103009800703,SASTH46,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>760</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4906,14 +4911,14 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800712,SASTH46@,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
+        <v>K0103009800712,SASTH46,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>760</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4930,14 +4935,14 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800729,SASTH46@,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
+        <v>K0103009800729,SASTH46,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>760</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4954,14 +4959,14 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800738,SASTH46@,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
+        <v>K0103009800738,SASTH46,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>760</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4978,14 +4983,14 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800747,SASTH46@,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
+        <v>K0103009800747,SASTH46,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>760</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -5002,14 +5007,14 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800756,SASTH46@,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
+        <v>K0103009800756,SASTH46,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>760</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5026,14 +5031,14 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800765,SASTH46@,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
+        <v>K0103009800765,SASTH46,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>760</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -5050,14 +5055,14 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800774,SASTH46@,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
+        <v>K0103009800774,SASTH46,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>760</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -5074,14 +5079,14 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800783,SASTH46@,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
+        <v>K0103009800783,SASTH46,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>760</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5098,14 +5103,14 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800792,SASTH46@,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
+        <v>K0103009800792,SASTH46,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>760</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5122,14 +5127,14 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800809,SASTH46@,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
+        <v>K0103009800809,SASTH46,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>760</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5146,14 +5151,14 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800818,SASTH46@,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
+        <v>K0103009800818,SASTH46,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>760</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5170,14 +5175,14 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800827,SASTH46@,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
+        <v>K0103009800827,SASTH46,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>760</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5194,14 +5199,14 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800836,SASTH46@,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
+        <v>K0103009800836,SASTH46,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>760</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5218,14 +5223,14 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800845,SASTH46@,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
+        <v>K0103009800845,SASTH46,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>760</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5242,14 +5247,14 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800854,SASTH46@,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
+        <v>K0103009800854,SASTH46,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>760</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5266,14 +5271,14 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800863,SASTH46@,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
+        <v>K0103009800863,SASTH46,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>760</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5290,14 +5295,14 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800872,SASTH46@,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
+        <v>K0103009800872,SASTH46,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>760</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5314,14 +5319,14 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800889,SASTH46@,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
+        <v>K0103009800889,SASTH46,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>760</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5338,14 +5343,14 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800898,SASTH46@,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
+        <v>K0103009800898,SASTH46,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>760</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5362,14 +5367,14 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800907,SASTH46@,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
+        <v>K0103009800907,SASTH46,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>760</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -5386,14 +5391,14 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800916,SASTH46@,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
+        <v>K0103009800916,SASTH46,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>760</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5410,14 +5415,14 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800925,SASTH46@,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
+        <v>K0103009800925,SASTH46,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>760</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -5434,14 +5439,14 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800934,SASTH46@,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
+        <v>K0103009800934,SASTH46,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>760</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -5458,14 +5463,14 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800943,SASTH46@,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
+        <v>K0103009800943,SASTH46,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>760</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5482,14 +5487,14 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800952,SASTH46@,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
+        <v>K0103009800952,SASTH46,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>760</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5506,14 +5511,14 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800969,SASTH46@,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
+        <v>K0103009800969,SASTH46,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>760</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5530,14 +5535,14 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800978,SASTH46@,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
+        <v>K0103009800978,SASTH46,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>760</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5554,14 +5559,14 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800987,SASTH46@,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
+        <v>K0103009800987,SASTH46,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>760</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5578,14 +5583,14 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009800996,SASTH46@,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
+        <v>K0103009800996,SASTH46,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>760</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5602,14 +5607,14 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801005,SASTH46@,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
+        <v>K0103009801005,SASTH46,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>760</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5626,14 +5631,14 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801014,SASTH46@,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
+        <v>K0103009801014,SASTH46,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>760</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5650,14 +5655,14 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801023,SASTH46@,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
+        <v>K0103009801023,SASTH46,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>760</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5674,14 +5679,14 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801032,SASTH46@,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
+        <v>K0103009801032,SASTH46,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>760</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5698,14 +5703,14 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801049,SASTH46@,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
+        <v>K0103009801049,SASTH46,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>760</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5722,14 +5727,14 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801058,SASTH46@,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
+        <v>K0103009801058,SASTH46,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>760</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5746,14 +5751,14 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801067,SASTH46@,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
+        <v>K0103009801067,SASTH46,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>760</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5770,14 +5775,14 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801076,SASTH46@,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
+        <v>K0103009801076,SASTH46,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>760</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5794,14 +5799,14 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801085,SASTH46@,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
+        <v>K0103009801085,SASTH46,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>760</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5818,14 +5823,14 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801094,SASTH46@,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
+        <v>K0103009801094,SASTH46,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>760</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -5842,14 +5847,14 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801103,SASTH46@,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
+        <v>K0103009801103,SASTH46,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>760</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5866,14 +5871,14 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801112,SASTH46@,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
+        <v>K0103009801112,SASTH46,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>760</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5890,14 +5895,14 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801129,SASTH46@,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
+        <v>K0103009801129,SASTH46,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>760</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5914,14 +5919,14 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801138,SASTH46@,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
+        <v>K0103009801138,SASTH46,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>760</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5938,14 +5943,14 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801147,SASTH46@,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
+        <v>K0103009801147,SASTH46,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>760</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5962,14 +5967,14 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801156,SASTH46@,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
+        <v>K0103009801156,SASTH46,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>760</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5986,14 +5991,14 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801165,SASTH46@,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
+        <v>K0103009801165,SASTH46,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>760</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -6010,14 +6015,14 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801174,SASTH46@,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
+        <v>K0103009801174,SASTH46,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
         <v>760</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -6034,14 +6039,14 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801183,SASTH46@,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
+        <v>K0103009801183,SASTH46,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>760</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -6058,14 +6063,14 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801192,SASTH46@,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
+        <v>K0103009801192,SASTH46,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>760</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -6082,14 +6087,14 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801209,SASTH46@,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
+        <v>K0103009801209,SASTH46,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>760</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -6106,14 +6111,14 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801218,SASTH46@,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
+        <v>K0103009801218,SASTH46,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>760</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -6130,14 +6135,14 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801227,SASTH46@,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
+        <v>K0103009801227,SASTH46,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>760</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -6154,14 +6159,14 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801236,SASTH46@,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
+        <v>K0103009801236,SASTH46,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>760</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -6178,14 +6183,14 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801245,SASTH46@,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
+        <v>K0103009801245,SASTH46,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>760</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -6202,14 +6207,14 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801254,SASTH46@,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
+        <v>K0103009801254,SASTH46,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>760</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -6226,14 +6231,14 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801263,SASTH46@,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
+        <v>K0103009801263,SASTH46,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
         <v>760</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -6250,14 +6255,14 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801272,SASTH46@,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
+        <v>K0103009801272,SASTH46,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>760</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -6274,14 +6279,14 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
-        <v>K0103009801289,SASTH46@,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
+        <v>K0103009801289,SASTH46,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>760</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -6298,14 +6303,14 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" ref="G130:G193" si="2">CONCATENATE(A130,",",B130,",",C130,",",D130,",",E130,",",F130)</f>
-        <v>K0103009801298,SASTH46@,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
+        <v>K0103009801298,SASTH46,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s">
         <v>760</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -6322,14 +6327,14 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801307,SASTH46@,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
+        <v>K0103009801307,SASTH46,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>760</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -6346,14 +6351,14 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801316,SASTH46@,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
+        <v>K0103009801316,SASTH46,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>760</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -6370,14 +6375,14 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801325,SASTH46@,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
+        <v>K0103009801325,SASTH46,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s">
         <v>760</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -6394,14 +6399,14 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801334,SASTH46@,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
+        <v>K0103009801334,SASTH46,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
         <v>760</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -6418,14 +6423,14 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801343,SASTH46@,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
+        <v>K0103009801343,SASTH46,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>760</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -6442,14 +6447,14 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801352,SASTH46@,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
+        <v>K0103009801352,SASTH46,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>760</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -6466,14 +6471,14 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801369,SASTH46@,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
+        <v>K0103009801369,SASTH46,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
         <v>760</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -6490,14 +6495,14 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801378,SASTH46@,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
+        <v>K0103009801378,SASTH46,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>760</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -6514,14 +6519,14 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801387,SASTH46@,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
+        <v>K0103009801387,SASTH46,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>760</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -6538,14 +6543,14 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801396,SASTH46@,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
+        <v>K0103009801396,SASTH46,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
         <v>760</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -6562,14 +6567,14 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801405,SASTH46@,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
+        <v>K0103009801405,SASTH46,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
         <v>760</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -6586,14 +6591,14 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801414,SASTH46@,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
+        <v>K0103009801414,SASTH46,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
         <v>760</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -6610,14 +6615,14 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801423,SASTH46@,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
+        <v>K0103009801423,SASTH46,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>760</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -6634,14 +6639,14 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801432,SASTH46@,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
+        <v>K0103009801432,SASTH46,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>760</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -6658,14 +6663,14 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801449,SASTH46@,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
+        <v>K0103009801449,SASTH46,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>760</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -6682,14 +6687,14 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801458,SASTH46@,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
+        <v>K0103009801458,SASTH46,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>760</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -6706,14 +6711,14 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801467,SASTH46@,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
+        <v>K0103009801467,SASTH46,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>760</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -6730,14 +6735,14 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801476,SASTH46@,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
+        <v>K0103009801476,SASTH46,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
         <v>760</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -6754,14 +6759,14 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801485,SASTH46@,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
+        <v>K0103009801485,SASTH46,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>760</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -6778,14 +6783,14 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801494,SASTH46@,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
+        <v>K0103009801494,SASTH46,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
         <v>760</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -6802,14 +6807,14 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801503,SASTH46@,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
+        <v>K0103009801503,SASTH46,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>760</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -6826,14 +6831,14 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801512,SASTH46@,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
+        <v>K0103009801512,SASTH46,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
         <v>760</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -6850,14 +6855,14 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801529,SASTH46@,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
+        <v>K0103009801529,SASTH46,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>760</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -6874,14 +6879,14 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801538,SASTH46@,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
+        <v>K0103009801538,SASTH46,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>760</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -6898,14 +6903,14 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801547,SASTH46@,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
+        <v>K0103009801547,SASTH46,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>760</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -6922,14 +6927,14 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801556,SASTH46@,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
+        <v>K0103009801556,SASTH46,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>760</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -6946,14 +6951,14 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801565,SASTH46@,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
+        <v>K0103009801565,SASTH46,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
         <v>760</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -6970,14 +6975,14 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801574,SASTH46@,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
+        <v>K0103009801574,SASTH46,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
         <v>760</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -6994,14 +6999,14 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801583,SASTH46@,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
+        <v>K0103009801583,SASTH46,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>760</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -7018,14 +7023,14 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801592,SASTH46@,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
+        <v>K0103009801592,SASTH46,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s">
         <v>760</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -7042,14 +7047,14 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801609,SASTH46@,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
+        <v>K0103009801609,SASTH46,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>760</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -7066,14 +7071,14 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801618,SASTH46@,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
+        <v>K0103009801618,SASTH46,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
         <v>760</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -7090,14 +7095,14 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801627,SASTH46@,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
+        <v>K0103009801627,SASTH46,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
         <v>760</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -7114,14 +7119,14 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801636,SASTH46@,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
+        <v>K0103009801636,SASTH46,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>760</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -7138,14 +7143,14 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801645,SASTH46@,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
+        <v>K0103009801645,SASTH46,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>760</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -7162,14 +7167,14 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801654,SASTH46@,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
+        <v>K0103009801654,SASTH46,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
         <v>760</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -7186,14 +7191,14 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801663,SASTH46@,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
+        <v>K0103009801663,SASTH46,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>760</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -7210,14 +7215,14 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801672,SASTH46@,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
+        <v>K0103009801672,SASTH46,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>760</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -7234,14 +7239,14 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801689,SASTH46@,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
+        <v>K0103009801689,SASTH46,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>760</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -7258,14 +7263,14 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801698,SASTH46@,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
+        <v>K0103009801698,SASTH46,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
         <v>760</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -7282,14 +7287,14 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801707,SASTH46@,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
+        <v>K0103009801707,SASTH46,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>760</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -7306,14 +7311,14 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801716,SASTH46@,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
+        <v>K0103009801716,SASTH46,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s">
         <v>760</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -7330,14 +7335,14 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801725,SASTH46@,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
+        <v>K0103009801725,SASTH46,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
         <v>760</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -7354,14 +7359,14 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801734,SASTH46@,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
+        <v>K0103009801734,SASTH46,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
         <v>760</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -7378,14 +7383,14 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801743,SASTH46@,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
+        <v>K0103009801743,SASTH46,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
         <v>760</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -7402,14 +7407,14 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801752,SASTH46@,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
+        <v>K0103009801752,SASTH46,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>760</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -7426,14 +7431,14 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801769,SASTH46@,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
+        <v>K0103009801769,SASTH46,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>760</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -7450,14 +7455,14 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801778,SASTH46@,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
+        <v>K0103009801778,SASTH46,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s">
         <v>760</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -7474,14 +7479,14 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801787,SASTH46@,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
+        <v>K0103009801787,SASTH46,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>760</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -7498,14 +7503,14 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801796,SASTH46@,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
+        <v>K0103009801796,SASTH46,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
         <v>760</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -7522,14 +7527,14 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801805,SASTH46@,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
+        <v>K0103009801805,SASTH46,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>760</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -7546,14 +7551,14 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801814,SASTH46@,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
+        <v>K0103009801814,SASTH46,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
         <v>760</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -7570,14 +7575,14 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801823,SASTH46@,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
+        <v>K0103009801823,SASTH46,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>760</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -7594,14 +7599,14 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801832,SASTH46@,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
+        <v>K0103009801832,SASTH46,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>760</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -7618,14 +7623,14 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801849,SASTH46@,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
+        <v>K0103009801849,SASTH46,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>760</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -7642,14 +7647,14 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801858,SASTH46@,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
+        <v>K0103009801858,SASTH46,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>760</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -7666,14 +7671,14 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801867,SASTH46@,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
+        <v>K0103009801867,SASTH46,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
         <v>760</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -7690,14 +7695,14 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801876,SASTH46@,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
+        <v>K0103009801876,SASTH46,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s">
         <v>760</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -7714,14 +7719,14 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801885,SASTH46@,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
+        <v>K0103009801885,SASTH46,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>760</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -7738,14 +7743,14 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801894,SASTH46@,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
+        <v>K0103009801894,SASTH46,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
         <v>760</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -7762,14 +7767,14 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801903,SASTH46@,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
+        <v>K0103009801903,SASTH46,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>760</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -7786,14 +7791,14 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801912,SASTH46@,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
+        <v>K0103009801912,SASTH46,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>760</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -7810,14 +7815,14 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="2"/>
-        <v>K0103009801929,SASTH46@,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
+        <v>K0103009801929,SASTH46,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>760</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -7834,14 +7839,14 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" ref="G194:G247" si="3">CONCATENATE(A194,",",B194,",",C194,",",D194,",",E194,",",F194)</f>
-        <v>K0103009801938,SASTH46@,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
+        <v>K0103009801938,SASTH46,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>760</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -7858,14 +7863,14 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801947,SASTH46@,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
+        <v>K0103009801947,SASTH46,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>760</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -7882,14 +7887,14 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801956,SASTH46@,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
+        <v>K0103009801956,SASTH46,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>760</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -7906,14 +7911,14 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801965,SASTH46@,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
+        <v>K0103009801965,SASTH46,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
         <v>760</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -7930,14 +7935,14 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801974,SASTH46@,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
+        <v>K0103009801974,SASTH46,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
         <v>760</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -7954,14 +7959,14 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801983,SASTH46@,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
+        <v>K0103009801983,SASTH46,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>760</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -7978,14 +7983,14 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009801992,SASTH46@,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
+        <v>K0103009801992,SASTH46,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s">
         <v>760</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -8002,14 +8007,14 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802009,SASTH46@,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
+        <v>K0103009802009,SASTH46,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>760</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -8026,14 +8031,14 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802018,SASTH46@,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
+        <v>K0103009802018,SASTH46,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" t="s">
         <v>760</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -8050,14 +8055,14 @@
       </c>
       <c r="G203" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802027,SASTH46@,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
+        <v>K0103009802027,SASTH46,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" t="s">
         <v>760</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -8074,14 +8079,14 @@
       </c>
       <c r="G204" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802036,SASTH46@,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
+        <v>K0103009802036,SASTH46,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>760</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -8098,14 +8103,14 @@
       </c>
       <c r="G205" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802045,SASTH46@,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
+        <v>K0103009802045,SASTH46,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" t="s">
         <v>760</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -8122,14 +8127,14 @@
       </c>
       <c r="G206" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802054,SASTH46@,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
+        <v>K0103009802054,SASTH46,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>760</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -8146,14 +8151,14 @@
       </c>
       <c r="G207" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802063,SASTH46@,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
+        <v>K0103009802063,SASTH46,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" t="s">
         <v>760</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -8170,14 +8175,14 @@
       </c>
       <c r="G208" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802072,SASTH46@,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
+        <v>K0103009802072,SASTH46,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" t="s">
         <v>760</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -8194,14 +8199,14 @@
       </c>
       <c r="G209" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802089,SASTH46@,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
+        <v>K0103009802089,SASTH46,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s">
         <v>760</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -8218,14 +8223,14 @@
       </c>
       <c r="G210" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802098,SASTH46@,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
+        <v>K0103009802098,SASTH46,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" t="s">
         <v>760</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -8242,14 +8247,14 @@
       </c>
       <c r="G211" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802107,SASTH46@,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
+        <v>K0103009802107,SASTH46,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s">
         <v>760</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -8266,14 +8271,14 @@
       </c>
       <c r="G212" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802116,SASTH46@,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
+        <v>K0103009802116,SASTH46,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" t="s">
         <v>760</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -8290,14 +8295,14 @@
       </c>
       <c r="G213" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802125,SASTH46@,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
+        <v>K0103009802125,SASTH46,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" t="s">
         <v>760</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -8314,14 +8319,14 @@
       </c>
       <c r="G214" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802134,SASTH46@,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
+        <v>K0103009802134,SASTH46,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" t="s">
         <v>760</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -8338,14 +8343,14 @@
       </c>
       <c r="G215" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802143,SASTH46@,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
+        <v>K0103009802143,SASTH46,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" t="s">
         <v>760</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -8362,14 +8367,14 @@
       </c>
       <c r="G216" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802152,SASTH46@,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
+        <v>K0103009802152,SASTH46,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" t="s">
         <v>760</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -8386,14 +8391,14 @@
       </c>
       <c r="G217" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802169,SASTH46@,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
+        <v>K0103009802169,SASTH46,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" t="s">
         <v>760</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -8410,14 +8415,14 @@
       </c>
       <c r="G218" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802178,SASTH46@,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
+        <v>K0103009802178,SASTH46,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" t="s">
         <v>760</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -8434,14 +8439,14 @@
       </c>
       <c r="G219" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802187,SASTH46@,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
+        <v>K0103009802187,SASTH46,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" t="s">
         <v>760</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -8458,14 +8463,14 @@
       </c>
       <c r="G220" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802196,SASTH46@,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
+        <v>K0103009802196,SASTH46,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" t="s">
         <v>760</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -8482,14 +8487,14 @@
       </c>
       <c r="G221" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802205,SASTH46@,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
+        <v>K0103009802205,SASTH46,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" t="s">
         <v>760</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -8506,14 +8511,14 @@
       </c>
       <c r="G222" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802214,SASTH46@,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
+        <v>K0103009802214,SASTH46,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" t="s">
         <v>760</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -8530,14 +8535,14 @@
       </c>
       <c r="G223" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802223,SASTH46@,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
+        <v>K0103009802223,SASTH46,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" t="s">
         <v>760</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -8554,14 +8559,14 @@
       </c>
       <c r="G224" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802232,SASTH46@,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
+        <v>K0103009802232,SASTH46,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" t="s">
         <v>760</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -8578,14 +8583,14 @@
       </c>
       <c r="G225" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802249,SASTH46@,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
+        <v>K0103009802249,SASTH46,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" t="s">
         <v>760</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -8602,14 +8607,14 @@
       </c>
       <c r="G226" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802258,SASTH46@,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
+        <v>K0103009802258,SASTH46,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" t="s">
         <v>760</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -8626,14 +8631,14 @@
       </c>
       <c r="G227" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802267,SASTH46@,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
+        <v>K0103009802267,SASTH46,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" t="s">
         <v>760</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -8650,14 +8655,14 @@
       </c>
       <c r="G228" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802276,SASTH46@,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
+        <v>K0103009802276,SASTH46,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" t="s">
         <v>760</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -8674,14 +8679,14 @@
       </c>
       <c r="G229" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802285,SASTH46@,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
+        <v>K0103009802285,SASTH46,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" t="s">
         <v>760</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -8698,14 +8703,14 @@
       </c>
       <c r="G230" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802294,SASTH46@,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
+        <v>K0103009802294,SASTH46,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" t="s">
         <v>760</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -8722,14 +8727,14 @@
       </c>
       <c r="G231" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802303,SASTH46@,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
+        <v>K0103009802303,SASTH46,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" t="s">
         <v>760</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -8746,14 +8751,14 @@
       </c>
       <c r="G232" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802312,SASTH46@,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
+        <v>K0103009802312,SASTH46,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" t="s">
         <v>760</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -8770,14 +8775,14 @@
       </c>
       <c r="G233" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802329,SASTH46@,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
+        <v>K0103009802329,SASTH46,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" t="s">
         <v>760</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -8794,14 +8799,14 @@
       </c>
       <c r="G234" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802338,SASTH46@,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
+        <v>K0103009802338,SASTH46,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" t="s">
         <v>760</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -8818,14 +8823,14 @@
       </c>
       <c r="G235" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802347,SASTH46@,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
+        <v>K0103009802347,SASTH46,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" t="s">
         <v>760</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -8842,14 +8847,14 @@
       </c>
       <c r="G236" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802356,SASTH46@,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
+        <v>K0103009802356,SASTH46,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" t="s">
         <v>760</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -8866,14 +8871,14 @@
       </c>
       <c r="G237" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802365,SASTH46@,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
+        <v>K0103009802365,SASTH46,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s">
         <v>760</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -8890,14 +8895,14 @@
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802374,SASTH46@,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
+        <v>K0103009802374,SASTH46,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" t="s">
         <v>760</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -8914,14 +8919,14 @@
       </c>
       <c r="G239" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802383,SASTH46@,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
+        <v>K0103009802383,SASTH46,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" t="s">
         <v>760</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -8938,14 +8943,14 @@
       </c>
       <c r="G240" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802392,SASTH46@,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
+        <v>K0103009802392,SASTH46,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" t="s">
         <v>760</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -8962,14 +8967,14 @@
       </c>
       <c r="G241" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802409,SASTH46@,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
+        <v>K0103009802409,SASTH46,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" t="s">
         <v>760</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -8986,14 +8991,14 @@
       </c>
       <c r="G242" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802418,SASTH46@,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
+        <v>K0103009802418,SASTH46,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" t="s">
         <v>760</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -9010,14 +9015,14 @@
       </c>
       <c r="G243" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802427,SASTH46@,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
+        <v>K0103009802427,SASTH46,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" t="s">
         <v>760</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -9034,14 +9039,14 @@
       </c>
       <c r="G244" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802436,SASTH46@,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
+        <v>K0103009802436,SASTH46,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" t="s">
         <v>760</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -9058,14 +9063,14 @@
       </c>
       <c r="G245" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802445,SASTH46@,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
+        <v>K0103009802445,SASTH46,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" t="s">
         <v>760</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -9082,14 +9087,14 @@
       </c>
       <c r="G246" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802454,SASTH46@,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
+        <v>K0103009802454,SASTH46,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" t="s">
         <v>760</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -9106,7 +9111,7 @@
       </c>
       <c r="G247" t="str">
         <f t="shared" si="3"/>
-        <v>K0103009802463,SASTH46@,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
+        <v>K0103009802463,SASTH46,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -14670,6 +14675,7 @@
       <c r="E1042" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>